--- a/public/reportes/POAS.xlsx
+++ b/public/reportes/POAS.xlsx
@@ -22,9 +22,9 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <b/>
+      <i/>
     </font>
     <font>
       <sz val="12"/>
@@ -32,12 +32,17 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0070C0"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -53,7 +58,7 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>

--- a/public/reportes/POAS.xlsx
+++ b/public/reportes/POAS.xlsx
@@ -163,12 +163,12 @@
       </c>
       <c r="F2" s="0" t="inlineStr">
         <is>
-          <t>aaa</t>
+          <t>qwewqe</t>
         </is>
       </c>
       <c r="G2" s="0" t="inlineStr">
         <is>
-          <t>aaa</t>
+          <t>qweqwe</t>
         </is>
       </c>
       <c r="H2" s="0" t="inlineStr">
@@ -178,7 +178,22 @@
       </c>
       <c r="I2" s="0" t="inlineStr">
         <is>
-          <t>aaa</t>
+          <t>weqwe</t>
+        </is>
+      </c>
+      <c r="J2" s="0" t="inlineStr">
+        <is>
+          <t>Ejemplo</t>
+        </is>
+      </c>
+      <c r="K2" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L2" s="0" t="inlineStr">
+        <is>
+          <t>Acervo</t>
         </is>
       </c>
     </row>
@@ -206,27 +221,42 @@
       </c>
       <c r="E3" s="0" t="inlineStr">
         <is>
-          <t>5988</t>
+          <t>5989</t>
         </is>
       </c>
       <c r="F3" s="0" t="inlineStr">
         <is>
-          <t>qwe</t>
+          <t>qwewqe</t>
         </is>
       </c>
       <c r="G3" s="0" t="inlineStr">
         <is>
-          <t>Modificado</t>
+          <t>qweqwe</t>
         </is>
       </c>
       <c r="H3" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Programa Presupuestario 1</t>
         </is>
       </c>
       <c r="I3" s="0" t="inlineStr">
         <is>
-          <t>qweqwe</t>
+          <t>weqwe</t>
+        </is>
+      </c>
+      <c r="J3" s="0" t="inlineStr">
+        <is>
+          <t>Ejemplo</t>
+        </is>
+      </c>
+      <c r="K3" s="0" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="L3" s="0" t="inlineStr">
+        <is>
+          <t>Albergue</t>
         </is>
       </c>
     </row>
@@ -254,27 +284,42 @@
       </c>
       <c r="E4" s="0" t="inlineStr">
         <is>
-          <t>5988</t>
+          <t>5989</t>
         </is>
       </c>
       <c r="F4" s="0" t="inlineStr">
         <is>
-          <t>qwe</t>
+          <t>qwewqe</t>
         </is>
       </c>
       <c r="G4" s="0" t="inlineStr">
         <is>
-          <t>Modificado</t>
+          <t>qweqwe</t>
         </is>
       </c>
       <c r="H4" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 101</t>
+          <t>Programa Presupuestario 1</t>
         </is>
       </c>
       <c r="I4" s="0" t="inlineStr">
         <is>
-          <t>qweqwe</t>
+          <t>weqwe</t>
+        </is>
+      </c>
+      <c r="J4" s="0" t="inlineStr">
+        <is>
+          <t>Ejemplo</t>
+        </is>
+      </c>
+      <c r="K4" s="0" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="L4" s="0" t="inlineStr">
+        <is>
+          <t>Albergue</t>
         </is>
       </c>
     </row>
@@ -302,27 +347,42 @@
       </c>
       <c r="E5" s="0" t="inlineStr">
         <is>
-          <t>5997</t>
+          <t>5989</t>
         </is>
       </c>
       <c r="F5" s="0" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>qwewqe</t>
         </is>
       </c>
       <c r="G5" s="0" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>qweqwe</t>
         </is>
       </c>
       <c r="H5" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 5</t>
+          <t>Programa Presupuestario 1</t>
         </is>
       </c>
       <c r="I5" s="0" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>weqwe</t>
+        </is>
+      </c>
+      <c r="J5" s="0" t="inlineStr">
+        <is>
+          <t>Ejemplo</t>
+        </is>
+      </c>
+      <c r="K5" s="0" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="L5" s="0" t="inlineStr">
+        <is>
+          <t>Acta de cierre</t>
         </is>
       </c>
     </row>
@@ -345,32 +405,1559 @@
       </c>
       <c r="D6" s="0" t="inlineStr">
         <is>
-          <t>Componente</t>
+          <t>Propósito</t>
         </is>
       </c>
       <c r="E6" s="0" t="inlineStr">
         <is>
-          <t>5529</t>
+          <t>5989</t>
         </is>
       </c>
       <c r="F6" s="0" t="inlineStr">
         <is>
-          <t>Optimizar la generación de recursos propios estatales </t>
+          <t>qwewqe</t>
         </is>
       </c>
       <c r="G6" s="0" t="inlineStr">
         <is>
-          <t>Subasta pública electrónica</t>
+          <t>qweqwe</t>
         </is>
       </c>
       <c r="H6" s="0" t="inlineStr">
         <is>
-          <t>Programa Presupuestario 3</t>
+          <t>Programa Presupuestario 1</t>
         </is>
       </c>
       <c r="I6" s="0" t="inlineStr">
         <is>
-          <t>Aprovechar los recursos propios</t>
+          <t>weqwe</t>
+        </is>
+      </c>
+      <c r="J6" s="0" t="inlineStr">
+        <is>
+          <t>EJEMPLO</t>
+        </is>
+      </c>
+      <c r="K6" s="0" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="L6" s="0" t="inlineStr">
+        <is>
+          <t>Almacén</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>Gobierno Ciudadano
+</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>Propósito</t>
+        </is>
+      </c>
+      <c r="E7" s="0" t="inlineStr">
+        <is>
+          <t>5989</t>
+        </is>
+      </c>
+      <c r="F7" s="0" t="inlineStr">
+        <is>
+          <t>qwewqe</t>
+        </is>
+      </c>
+      <c r="G7" s="0" t="inlineStr">
+        <is>
+          <t>qweqwe</t>
+        </is>
+      </c>
+      <c r="H7" s="0" t="inlineStr">
+        <is>
+          <t>Programa Presupuestario 1</t>
+        </is>
+      </c>
+      <c r="I7" s="0" t="inlineStr">
+        <is>
+          <t>weqwe</t>
+        </is>
+      </c>
+      <c r="J7" s="0" t="inlineStr">
+        <is>
+          <t>Prueba</t>
+        </is>
+      </c>
+      <c r="K7" s="0" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="L7" s="0" t="inlineStr">
+        <is>
+          <t>Acreditación</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>Gobierno Ciudadano
+</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="D8" s="0" t="inlineStr">
+        <is>
+          <t>Propósito</t>
+        </is>
+      </c>
+      <c r="E8" s="0" t="inlineStr">
+        <is>
+          <t>5989</t>
+        </is>
+      </c>
+      <c r="F8" s="0" t="inlineStr">
+        <is>
+          <t>qwewqe</t>
+        </is>
+      </c>
+      <c r="G8" s="0" t="inlineStr">
+        <is>
+          <t>qweqwe</t>
+        </is>
+      </c>
+      <c r="H8" s="0" t="inlineStr">
+        <is>
+          <t>Programa Presupuestario 1</t>
+        </is>
+      </c>
+      <c r="I8" s="0" t="inlineStr">
+        <is>
+          <t>weqwe</t>
+        </is>
+      </c>
+      <c r="J8" s="0" t="inlineStr">
+        <is>
+          <t>Nuevo</t>
+        </is>
+      </c>
+      <c r="K8" s="0" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="L8" s="0" t="inlineStr">
+        <is>
+          <t>Acometida</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>Gobierno Ciudadano
+</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="D9" s="0" t="inlineStr">
+        <is>
+          <t>Propósito</t>
+        </is>
+      </c>
+      <c r="E9" s="0" t="inlineStr">
+        <is>
+          <t>5989</t>
+        </is>
+      </c>
+      <c r="F9" s="0" t="inlineStr">
+        <is>
+          <t>qwewqe</t>
+        </is>
+      </c>
+      <c r="G9" s="0" t="inlineStr">
+        <is>
+          <t>qweqwe</t>
+        </is>
+      </c>
+      <c r="H9" s="0" t="inlineStr">
+        <is>
+          <t>Programa Presupuestario 1</t>
+        </is>
+      </c>
+      <c r="I9" s="0" t="inlineStr">
+        <is>
+          <t>weqwe</t>
+        </is>
+      </c>
+      <c r="J9" s="0" t="inlineStr">
+        <is>
+          <t>Prueba</t>
+        </is>
+      </c>
+      <c r="K9" s="0" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="L9" s="0" t="inlineStr">
+        <is>
+          <t>Almacén</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>Gobierno Ciudadano
+</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="D10" s="0" t="inlineStr">
+        <is>
+          <t>Propósito</t>
+        </is>
+      </c>
+      <c r="E10" s="0" t="inlineStr">
+        <is>
+          <t>5989</t>
+        </is>
+      </c>
+      <c r="F10" s="0" t="inlineStr">
+        <is>
+          <t>qwewqe</t>
+        </is>
+      </c>
+      <c r="G10" s="0" t="inlineStr">
+        <is>
+          <t>qweqwe</t>
+        </is>
+      </c>
+      <c r="H10" s="0" t="inlineStr">
+        <is>
+          <t>Programa Presupuestario 1</t>
+        </is>
+      </c>
+      <c r="I10" s="0" t="inlineStr">
+        <is>
+          <t>weqwe</t>
+        </is>
+      </c>
+      <c r="J10" s="0" t="inlineStr">
+        <is>
+          <t>qweqwe</t>
+        </is>
+      </c>
+      <c r="K10" s="0" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="L10" s="0" t="inlineStr">
+        <is>
+          <t>Alumno</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>Gobierno Ciudadano
+</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="D11" s="0" t="inlineStr">
+        <is>
+          <t>Propósito</t>
+        </is>
+      </c>
+      <c r="E11" s="0" t="inlineStr">
+        <is>
+          <t>5989</t>
+        </is>
+      </c>
+      <c r="F11" s="0" t="inlineStr">
+        <is>
+          <t>qwewqe</t>
+        </is>
+      </c>
+      <c r="G11" s="0" t="inlineStr">
+        <is>
+          <t>qweqwe</t>
+        </is>
+      </c>
+      <c r="H11" s="0" t="inlineStr">
+        <is>
+          <t>Programa Presupuestario 1</t>
+        </is>
+      </c>
+      <c r="I11" s="0" t="inlineStr">
+        <is>
+          <t>weqwe</t>
+        </is>
+      </c>
+      <c r="J11" s="0" t="inlineStr">
+        <is>
+          <t>qwe</t>
+        </is>
+      </c>
+      <c r="K11" s="0" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="L11" s="0" t="inlineStr">
+        <is>
+          <t>Albergue</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>Gobierno Ciudadano
+</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="D12" s="0" t="inlineStr">
+        <is>
+          <t>Propósito</t>
+        </is>
+      </c>
+      <c r="E12" s="0" t="inlineStr">
+        <is>
+          <t>5989</t>
+        </is>
+      </c>
+      <c r="F12" s="0" t="inlineStr">
+        <is>
+          <t>qwewqe</t>
+        </is>
+      </c>
+      <c r="G12" s="0" t="inlineStr">
+        <is>
+          <t>qweqwe</t>
+        </is>
+      </c>
+      <c r="H12" s="0" t="inlineStr">
+        <is>
+          <t>Programa Presupuestario 1</t>
+        </is>
+      </c>
+      <c r="I12" s="0" t="inlineStr">
+        <is>
+          <t>weqwe</t>
+        </is>
+      </c>
+      <c r="J12" s="0" t="inlineStr">
+        <is>
+          <t>qwe</t>
+        </is>
+      </c>
+      <c r="K12" s="0" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="L12" s="0" t="inlineStr">
+        <is>
+          <t>Albergue</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>Gobierno Ciudadano
+</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="D13" s="0" t="inlineStr">
+        <is>
+          <t>Propósito</t>
+        </is>
+      </c>
+      <c r="E13" s="0" t="inlineStr">
+        <is>
+          <t>5989</t>
+        </is>
+      </c>
+      <c r="F13" s="0" t="inlineStr">
+        <is>
+          <t>qwewqe</t>
+        </is>
+      </c>
+      <c r="G13" s="0" t="inlineStr">
+        <is>
+          <t>qweqwe</t>
+        </is>
+      </c>
+      <c r="H13" s="0" t="inlineStr">
+        <is>
+          <t>Programa Presupuestario 1</t>
+        </is>
+      </c>
+      <c r="I13" s="0" t="inlineStr">
+        <is>
+          <t>weqwe</t>
+        </is>
+      </c>
+      <c r="J13" s="0" t="inlineStr">
+        <is>
+          <t>Ejemplo</t>
+        </is>
+      </c>
+      <c r="K13" s="0" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="L13" s="0" t="inlineStr">
+        <is>
+          <t>Acta Circunstanciada</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>Gobierno Ciudadano
+</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="D14" s="0" t="inlineStr">
+        <is>
+          <t>Propósito</t>
+        </is>
+      </c>
+      <c r="E14" s="0" t="inlineStr">
+        <is>
+          <t>5989</t>
+        </is>
+      </c>
+      <c r="F14" s="0" t="inlineStr">
+        <is>
+          <t>qwewqe</t>
+        </is>
+      </c>
+      <c r="G14" s="0" t="inlineStr">
+        <is>
+          <t>qweqwe</t>
+        </is>
+      </c>
+      <c r="H14" s="0" t="inlineStr">
+        <is>
+          <t>Programa Presupuestario 1</t>
+        </is>
+      </c>
+      <c r="I14" s="0" t="inlineStr">
+        <is>
+          <t>weqwe</t>
+        </is>
+      </c>
+      <c r="J14" s="0" t="inlineStr">
+        <is>
+          <t>qweqwe</t>
+        </is>
+      </c>
+      <c r="K14" s="0" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="L14" s="0" t="inlineStr">
+        <is>
+          <t>Amparo</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>Gobierno Ciudadano
+</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="D15" s="0" t="inlineStr">
+        <is>
+          <t>Propósito</t>
+        </is>
+      </c>
+      <c r="E15" s="0" t="inlineStr">
+        <is>
+          <t>5989</t>
+        </is>
+      </c>
+      <c r="F15" s="0" t="inlineStr">
+        <is>
+          <t>qwewqe</t>
+        </is>
+      </c>
+      <c r="G15" s="0" t="inlineStr">
+        <is>
+          <t>qweqwe</t>
+        </is>
+      </c>
+      <c r="H15" s="0" t="inlineStr">
+        <is>
+          <t>Programa Presupuestario 1</t>
+        </is>
+      </c>
+      <c r="I15" s="0" t="inlineStr">
+        <is>
+          <t>weqwe</t>
+        </is>
+      </c>
+      <c r="J15" s="0" t="inlineStr">
+        <is>
+          <t>Prueba</t>
+        </is>
+      </c>
+      <c r="K15" s="0" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="L15" s="0" t="inlineStr">
+        <is>
+          <t>Almacén</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>Gobierno Ciudadano
+</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+      <c r="C16" s="0" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="D16" s="0" t="inlineStr">
+        <is>
+          <t>Propósito</t>
+        </is>
+      </c>
+      <c r="E16" s="0" t="inlineStr">
+        <is>
+          <t>5989</t>
+        </is>
+      </c>
+      <c r="F16" s="0" t="inlineStr">
+        <is>
+          <t>qwewqe</t>
+        </is>
+      </c>
+      <c r="G16" s="0" t="inlineStr">
+        <is>
+          <t>qweqwe</t>
+        </is>
+      </c>
+      <c r="H16" s="0" t="inlineStr">
+        <is>
+          <t>Programa Presupuestario 1</t>
+        </is>
+      </c>
+      <c r="I16" s="0" t="inlineStr">
+        <is>
+          <t>weqwe</t>
+        </is>
+      </c>
+      <c r="J16" s="0" t="inlineStr">
+        <is>
+          <t>qwe</t>
+        </is>
+      </c>
+      <c r="K16" s="0" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="L16" s="0" t="inlineStr">
+        <is>
+          <t>Acuerdo</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>Gobierno Ciudadano
+</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+      <c r="C17" s="0" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="D17" s="0" t="inlineStr">
+        <is>
+          <t>Propósito</t>
+        </is>
+      </c>
+      <c r="E17" s="0" t="inlineStr">
+        <is>
+          <t>5989</t>
+        </is>
+      </c>
+      <c r="F17" s="0" t="inlineStr">
+        <is>
+          <t>qwewqe</t>
+        </is>
+      </c>
+      <c r="G17" s="0" t="inlineStr">
+        <is>
+          <t>qweqwe</t>
+        </is>
+      </c>
+      <c r="H17" s="0" t="inlineStr">
+        <is>
+          <t>Programa Presupuestario 1</t>
+        </is>
+      </c>
+      <c r="I17" s="0" t="inlineStr">
+        <is>
+          <t>weqwe</t>
+        </is>
+      </c>
+      <c r="J17" s="0" t="inlineStr">
+        <is>
+          <t>qwe</t>
+        </is>
+      </c>
+      <c r="K17" s="0" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="L17" s="0" t="inlineStr">
+        <is>
+          <t>Acta de cierre</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>Gobierno Ciudadano
+</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+      <c r="C18" s="0" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="D18" s="0" t="inlineStr">
+        <is>
+          <t>Propósito</t>
+        </is>
+      </c>
+      <c r="E18" s="0" t="inlineStr">
+        <is>
+          <t>5989</t>
+        </is>
+      </c>
+      <c r="F18" s="0" t="inlineStr">
+        <is>
+          <t>qwewqe</t>
+        </is>
+      </c>
+      <c r="G18" s="0" t="inlineStr">
+        <is>
+          <t>qweqwe</t>
+        </is>
+      </c>
+      <c r="H18" s="0" t="inlineStr">
+        <is>
+          <t>Programa Presupuestario 1</t>
+        </is>
+      </c>
+      <c r="I18" s="0" t="inlineStr">
+        <is>
+          <t>weqwe</t>
+        </is>
+      </c>
+      <c r="J18" s="0" t="inlineStr">
+        <is>
+          <t>Indicador 1</t>
+        </is>
+      </c>
+      <c r="K18" s="0" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="L18" s="0" t="inlineStr">
+        <is>
+          <t>Acta Circunstanciada</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>Gobierno Ciudadano
+</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+      <c r="C19" s="0" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="D19" s="0" t="inlineStr">
+        <is>
+          <t>Propósito</t>
+        </is>
+      </c>
+      <c r="E19" s="0" t="inlineStr">
+        <is>
+          <t>5989</t>
+        </is>
+      </c>
+      <c r="F19" s="0" t="inlineStr">
+        <is>
+          <t>qwewqe</t>
+        </is>
+      </c>
+      <c r="G19" s="0" t="inlineStr">
+        <is>
+          <t>qweqwe</t>
+        </is>
+      </c>
+      <c r="H19" s="0" t="inlineStr">
+        <is>
+          <t>Programa Presupuestario 1</t>
+        </is>
+      </c>
+      <c r="I19" s="0" t="inlineStr">
+        <is>
+          <t>weqwe</t>
+        </is>
+      </c>
+      <c r="J19" s="0" t="inlineStr">
+        <is>
+          <t>Nuevo Pruweba</t>
+        </is>
+      </c>
+      <c r="K19" s="0" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="L19" s="0" t="inlineStr">
+        <is>
+          <t>Albergue</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>Gobierno Ciudadano
+</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+      <c r="C20" s="0" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="D20" s="0" t="inlineStr">
+        <is>
+          <t>Propósito</t>
+        </is>
+      </c>
+      <c r="E20" s="0" t="inlineStr">
+        <is>
+          <t>5989</t>
+        </is>
+      </c>
+      <c r="F20" s="0" t="inlineStr">
+        <is>
+          <t>qwewqe</t>
+        </is>
+      </c>
+      <c r="G20" s="0" t="inlineStr">
+        <is>
+          <t>qweqwe</t>
+        </is>
+      </c>
+      <c r="H20" s="0" t="inlineStr">
+        <is>
+          <t>Programa Presupuestario 1</t>
+        </is>
+      </c>
+      <c r="I20" s="0" t="inlineStr">
+        <is>
+          <t>weqwe</t>
+        </is>
+      </c>
+      <c r="J20" s="0" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="K20" s="0" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="L20" s="0" t="inlineStr">
+        <is>
+          <t>Alumno</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>Gobierno Ciudadano
+</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+      <c r="C21" s="0" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="D21" s="0" t="inlineStr">
+        <is>
+          <t>Propósito</t>
+        </is>
+      </c>
+      <c r="E21" s="0" t="inlineStr">
+        <is>
+          <t>5989</t>
+        </is>
+      </c>
+      <c r="F21" s="0" t="inlineStr">
+        <is>
+          <t>qwewqe</t>
+        </is>
+      </c>
+      <c r="G21" s="0" t="inlineStr">
+        <is>
+          <t>qweqwe</t>
+        </is>
+      </c>
+      <c r="H21" s="0" t="inlineStr">
+        <is>
+          <t>Programa Presupuestario 1</t>
+        </is>
+      </c>
+      <c r="I21" s="0" t="inlineStr">
+        <is>
+          <t>weqwe</t>
+        </is>
+      </c>
+      <c r="J21" s="0" t="inlineStr">
+        <is>
+          <t>Prueba</t>
+        </is>
+      </c>
+      <c r="K21" s="0" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="L21" s="0" t="inlineStr">
+        <is>
+          <t>Albergue</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>Gobierno Ciudadano
+</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+      <c r="C22" s="0" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="D22" s="0" t="inlineStr">
+        <is>
+          <t>Propósito</t>
+        </is>
+      </c>
+      <c r="E22" s="0" t="inlineStr">
+        <is>
+          <t>5989</t>
+        </is>
+      </c>
+      <c r="F22" s="0" t="inlineStr">
+        <is>
+          <t>qwewqe</t>
+        </is>
+      </c>
+      <c r="G22" s="0" t="inlineStr">
+        <is>
+          <t>qweqwe</t>
+        </is>
+      </c>
+      <c r="H22" s="0" t="inlineStr">
+        <is>
+          <t>Programa Presupuestario 1</t>
+        </is>
+      </c>
+      <c r="I22" s="0" t="inlineStr">
+        <is>
+          <t>weqwe</t>
+        </is>
+      </c>
+      <c r="J22" s="0" t="inlineStr">
+        <is>
+          <t>qwe</t>
+        </is>
+      </c>
+      <c r="K22" s="0" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="L22" s="0" t="inlineStr">
+        <is>
+          <t>Albergue</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>Gobierno Ciudadano
+</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+      <c r="C23" s="0" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="D23" s="0" t="inlineStr">
+        <is>
+          <t>Propósito</t>
+        </is>
+      </c>
+      <c r="E23" s="0" t="inlineStr">
+        <is>
+          <t>5989</t>
+        </is>
+      </c>
+      <c r="F23" s="0" t="inlineStr">
+        <is>
+          <t>qwewqe</t>
+        </is>
+      </c>
+      <c r="G23" s="0" t="inlineStr">
+        <is>
+          <t>qweqwe</t>
+        </is>
+      </c>
+      <c r="H23" s="0" t="inlineStr">
+        <is>
+          <t>Programa Presupuestario 1</t>
+        </is>
+      </c>
+      <c r="I23" s="0" t="inlineStr">
+        <is>
+          <t>weqwe</t>
+        </is>
+      </c>
+      <c r="J23" s="0" t="inlineStr">
+        <is>
+          <t>qweqwe</t>
+        </is>
+      </c>
+      <c r="K23" s="0" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="L23" s="0" t="inlineStr">
+        <is>
+          <t>Almacén</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>Gobierno Ciudadano
+</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+      <c r="C24" s="0" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="D24" s="0" t="inlineStr">
+        <is>
+          <t>Propósito</t>
+        </is>
+      </c>
+      <c r="E24" s="0" t="inlineStr">
+        <is>
+          <t>5989</t>
+        </is>
+      </c>
+      <c r="F24" s="0" t="inlineStr">
+        <is>
+          <t>qwewqe</t>
+        </is>
+      </c>
+      <c r="G24" s="0" t="inlineStr">
+        <is>
+          <t>qweqwe</t>
+        </is>
+      </c>
+      <c r="H24" s="0" t="inlineStr">
+        <is>
+          <t>Programa Presupuestario 1</t>
+        </is>
+      </c>
+      <c r="I24" s="0" t="inlineStr">
+        <is>
+          <t>weqwe</t>
+        </is>
+      </c>
+      <c r="J24" s="0" t="inlineStr">
+        <is>
+          <t>qweqwe</t>
+        </is>
+      </c>
+      <c r="K24" s="0" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="L24" s="0" t="inlineStr">
+        <is>
+          <t>Albergue</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>Gobierno Ciudadano
+</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+      <c r="C25" s="0" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="D25" s="0" t="inlineStr">
+        <is>
+          <t>Propósito</t>
+        </is>
+      </c>
+      <c r="E25" s="0" t="inlineStr">
+        <is>
+          <t>5989</t>
+        </is>
+      </c>
+      <c r="F25" s="0" t="inlineStr">
+        <is>
+          <t>qwewqe</t>
+        </is>
+      </c>
+      <c r="G25" s="0" t="inlineStr">
+        <is>
+          <t>qweqwe</t>
+        </is>
+      </c>
+      <c r="H25" s="0" t="inlineStr">
+        <is>
+          <t>Programa Presupuestario 1</t>
+        </is>
+      </c>
+      <c r="I25" s="0" t="inlineStr">
+        <is>
+          <t>weqwe</t>
+        </is>
+      </c>
+      <c r="J25" s="0" t="inlineStr">
+        <is>
+          <t>Indicador Prueba</t>
+        </is>
+      </c>
+      <c r="K25" s="0" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="L25" s="0" t="inlineStr">
+        <is>
+          <t>Acervo</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>Gobierno Ciudadano
+</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+      <c r="C26" s="0" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="D26" s="0" t="inlineStr">
+        <is>
+          <t>Propósito</t>
+        </is>
+      </c>
+      <c r="E26" s="0" t="inlineStr">
+        <is>
+          <t>5989</t>
+        </is>
+      </c>
+      <c r="F26" s="0" t="inlineStr">
+        <is>
+          <t>qwewqe</t>
+        </is>
+      </c>
+      <c r="G26" s="0" t="inlineStr">
+        <is>
+          <t>qweqwe</t>
+        </is>
+      </c>
+      <c r="H26" s="0" t="inlineStr">
+        <is>
+          <t>Programa Presupuestario 1</t>
+        </is>
+      </c>
+      <c r="I26" s="0" t="inlineStr">
+        <is>
+          <t>weqwe</t>
+        </is>
+      </c>
+      <c r="J26" s="0" t="inlineStr">
+        <is>
+          <t>qwe</t>
+        </is>
+      </c>
+      <c r="K26" s="0" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="L26" s="0" t="inlineStr">
+        <is>
+          <t>Acreditación</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>Gobierno Ciudadano
+</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+      <c r="C27" s="0" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="D27" s="0" t="inlineStr">
+        <is>
+          <t>Propósito</t>
+        </is>
+      </c>
+      <c r="E27" s="0" t="inlineStr">
+        <is>
+          <t>5989</t>
+        </is>
+      </c>
+      <c r="F27" s="0" t="inlineStr">
+        <is>
+          <t>qwewqe</t>
+        </is>
+      </c>
+      <c r="G27" s="0" t="inlineStr">
+        <is>
+          <t>qweqwe</t>
+        </is>
+      </c>
+      <c r="H27" s="0" t="inlineStr">
+        <is>
+          <t>Programa Presupuestario 1</t>
+        </is>
+      </c>
+      <c r="I27" s="0" t="inlineStr">
+        <is>
+          <t>weqwe</t>
+        </is>
+      </c>
+      <c r="J27" s="0" t="inlineStr">
+        <is>
+          <t>Ejemplo</t>
+        </is>
+      </c>
+      <c r="K27" s="0" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="L27" s="0" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>Gobierno Ciudadano
+</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+      <c r="C28" s="0" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="D28" s="0" t="inlineStr">
+        <is>
+          <t>Propósito</t>
+        </is>
+      </c>
+      <c r="E28" s="0" t="inlineStr">
+        <is>
+          <t>5989</t>
+        </is>
+      </c>
+      <c r="F28" s="0" t="inlineStr">
+        <is>
+          <t>qwewqe</t>
+        </is>
+      </c>
+      <c r="G28" s="0" t="inlineStr">
+        <is>
+          <t>qweqwe</t>
+        </is>
+      </c>
+      <c r="H28" s="0" t="inlineStr">
+        <is>
+          <t>Programa Presupuestario 1</t>
+        </is>
+      </c>
+      <c r="I28" s="0" t="inlineStr">
+        <is>
+          <t>weqwe</t>
+        </is>
+      </c>
+      <c r="J28" s="0" t="inlineStr">
+        <is>
+          <t>Prueba qwe</t>
+        </is>
+      </c>
+      <c r="K28" s="0" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="L28" s="0" t="inlineStr">
+        <is>
+          <t>Alumno</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="2" t="inlineStr">
+        <is>
+          <t>Gobierno Ciudadano
+</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+      <c r="C29" s="0" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="D29" s="0" t="inlineStr">
+        <is>
+          <t>Propósito</t>
+        </is>
+      </c>
+      <c r="E29" s="0" t="inlineStr">
+        <is>
+          <t>5992</t>
+        </is>
+      </c>
+      <c r="F29" s="0" t="inlineStr">
+        <is>
+          <t>qweqwe</t>
+        </is>
+      </c>
+      <c r="G29" s="0" t="inlineStr">
+        <is>
+          <t>qwe</t>
+        </is>
+      </c>
+      <c r="H29" s="0" t="inlineStr">
+        <is>
+          <t>Programa Presupuestario 5</t>
+        </is>
+      </c>
+      <c r="I29" s="0" t="inlineStr">
+        <is>
+          <t>qweqweqwe</t>
+        </is>
+      </c>
+      <c r="J29" s="0" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="K29" s="0" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="L29" s="0" t="inlineStr">
+        <is>
+          <t>Adulto</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>Gobierno Ciudadano
+</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+      <c r="C30" s="0" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="D30" s="0" t="inlineStr">
+        <is>
+          <t>Propósito</t>
+        </is>
+      </c>
+      <c r="E30" s="0" t="inlineStr">
+        <is>
+          <t>5989</t>
+        </is>
+      </c>
+      <c r="F30" s="0" t="inlineStr">
+        <is>
+          <t>qwewqe</t>
+        </is>
+      </c>
+      <c r="G30" s="0" t="inlineStr">
+        <is>
+          <t>qweqwe</t>
+        </is>
+      </c>
+      <c r="H30" s="0" t="inlineStr">
+        <is>
+          <t>Programa Presupuestario 1</t>
+        </is>
+      </c>
+      <c r="I30" s="0" t="inlineStr">
+        <is>
+          <t>weqwe</t>
+        </is>
+      </c>
+      <c r="J30" s="0" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="K30" s="0" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="L30" s="0" t="inlineStr">
+        <is>
+          <t>Almacén</t>
         </is>
       </c>
     </row>

--- a/public/reportes/POAS.xlsx
+++ b/public/reportes/POAS.xlsx
@@ -14,7 +14,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -27,12 +27,17 @@
       <i/>
     </font>
     <font>
+      <sz val="45"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -42,6 +47,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="0070C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -56,10 +66,11 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -72,632 +83,675 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Organismo</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>POA (SF)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>Clasificación</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>Programa Presupuestario</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Fecha</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>06-16-2022 09:25:08 pm</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
           <t>Eje</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B6" s="1" t="inlineStr">
         <is>
           <t>Dependencia</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr">
         <is>
           <t>Año</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D6" s="1" t="inlineStr">
         <is>
           <t>Nivel</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E6" s="1" t="inlineStr">
         <is>
           <t>Clave</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F6" s="1" t="inlineStr">
         <is>
           <t>Objetivo de Gobierno</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G6" s="1" t="inlineStr">
         <is>
           <t>Estrategia</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H6" s="1" t="inlineStr">
         <is>
           <t>Programa Presupuestario</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I6" s="1" t="inlineStr">
         <is>
           <t>Resumen Narrativo</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J6" s="1" t="inlineStr">
         <is>
           <t>Indicadores</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K6" s="1" t="inlineStr">
         <is>
           <t>Meta</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L6" s="1" t="inlineStr">
         <is>
           <t>Unidad de Medida</t>
         </is>
       </c>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Gobierno Ciudadano
-</t>
-        </is>
-      </c>
-      <c r="B2" s="0" t="inlineStr">
-        <is>
-          <t>Secretaría de Finanzas</t>
-        </is>
-      </c>
-      <c r="C2" s="0" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="D2" s="0" t="inlineStr">
+    <row r="7" spans="1:12">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>Gobierno Ciudadano
+</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="D7" s="0" t="inlineStr">
         <is>
           <t>Actividad</t>
         </is>
       </c>
-      <c r="E2" s="0" t="inlineStr">
+      <c r="E7" s="0" t="inlineStr">
         <is>
           <t>5512</t>
         </is>
       </c>
-      <c r="F2" s="0" t="inlineStr">
+      <c r="F7" s="0" t="inlineStr">
         <is>
           <t>Crear un Gobierno moderno, seguro y cercano a la gente</t>
         </is>
       </c>
-      <c r="G2" s="0" t="inlineStr">
+      <c r="G7" s="0" t="inlineStr">
         <is>
           <t>Plan Querétaro Digital</t>
         </is>
       </c>
-      <c r="H2" s="0" t="inlineStr">
+      <c r="H7" s="0" t="inlineStr">
         <is>
           <t>Programa Presupuestario 101</t>
         </is>
       </c>
-      <c r="I2" s="0" t="inlineStr">
+      <c r="I7" s="0" t="inlineStr">
         <is>
           <t>Agenda de Gobierno Digital</t>
         </is>
       </c>
-      <c r="J2" s="0" t="inlineStr">
+      <c r="J7" s="0" t="inlineStr">
         <is>
           <t>Porcentaje de Proyectos del Plan Querétaro Digital liberados con respecto al total de Proyectos</t>
         </is>
       </c>
-      <c r="K2" s="0" t="inlineStr">
+      <c r="K7" s="0" t="inlineStr">
         <is>
           <t>100</t>
         </is>
       </c>
-      <c r="L2" s="0" t="inlineStr">
+      <c r="L7" s="0" t="inlineStr">
         <is>
           <t>Porcentaje de Avance</t>
         </is>
       </c>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>Gobierno Ciudadano
-</t>
-        </is>
-      </c>
-      <c r="B3" s="0" t="inlineStr">
-        <is>
-          <t>Secretaría de Finanzas</t>
-        </is>
-      </c>
-      <c r="C3" s="0" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="D3" s="0" t="inlineStr">
+    <row r="8" spans="1:12">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>Gobierno Ciudadano
+</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="D8" s="0" t="inlineStr">
         <is>
           <t>Actividad</t>
         </is>
       </c>
-      <c r="E3" s="0" t="inlineStr">
+      <c r="E8" s="0" t="inlineStr">
         <is>
           <t>5512</t>
         </is>
       </c>
-      <c r="F3" s="0" t="inlineStr">
+      <c r="F8" s="0" t="inlineStr">
         <is>
           <t>Crear un Gobierno moderno, seguro y cercano a la gente</t>
         </is>
       </c>
-      <c r="G3" s="0" t="inlineStr">
+      <c r="G8" s="0" t="inlineStr">
         <is>
           <t>Plan Querétaro Digital</t>
         </is>
       </c>
-      <c r="H3" s="0" t="inlineStr">
+      <c r="H8" s="0" t="inlineStr">
         <is>
           <t>Programa Presupuestario 101</t>
         </is>
       </c>
-      <c r="I3" s="0" t="inlineStr">
+      <c r="I8" s="0" t="inlineStr">
         <is>
           <t>Agenda de Gobierno Digital</t>
         </is>
       </c>
-      <c r="J3" s="0" t="inlineStr">
+      <c r="J8" s="0" t="inlineStr">
         <is>
           <t>Prueba</t>
         </is>
       </c>
-      <c r="K3" s="0" t="inlineStr">
+      <c r="K8" s="0" t="inlineStr">
         <is>
           <t>100</t>
         </is>
       </c>
-      <c r="L3" s="0" t="inlineStr">
+      <c r="L8" s="0" t="inlineStr">
         <is>
           <t>Porcentaje de Avance</t>
         </is>
       </c>
     </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>Gobierno Ciudadano
-</t>
-        </is>
-      </c>
-      <c r="B4" s="0" t="inlineStr">
-        <is>
-          <t>Secretaría de Finanzas</t>
-        </is>
-      </c>
-      <c r="C4" s="0" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="D4" s="0" t="inlineStr">
+    <row r="9" spans="1:12">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>Gobierno Ciudadano
+</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="D9" s="0" t="inlineStr">
         <is>
           <t>Propósito</t>
         </is>
       </c>
-      <c r="E4" s="0" t="inlineStr">
+      <c r="E9" s="0" t="inlineStr">
         <is>
           <t>5989</t>
         </is>
       </c>
-      <c r="F4" s="0" t="inlineStr">
+      <c r="F9" s="0" t="inlineStr">
         <is>
           <t>aaa</t>
         </is>
       </c>
-      <c r="G4" s="0" t="inlineStr">
+      <c r="G9" s="0" t="inlineStr">
         <is>
           <t>aaa</t>
         </is>
       </c>
-      <c r="H4" s="0" t="inlineStr">
+      <c r="H9" s="0" t="inlineStr">
         <is>
           <t>Programa Presupuestario 1</t>
         </is>
       </c>
-      <c r="I4" s="0" t="inlineStr">
+      <c r="I9" s="0" t="inlineStr">
         <is>
           <t>aaa</t>
         </is>
       </c>
-      <c r="J4" s="0" t="inlineStr">
+      <c r="J9" s="0" t="inlineStr">
         <is>
           <t>Indicador 1</t>
         </is>
       </c>
-      <c r="K4" s="0" t="inlineStr">
+      <c r="K9" s="0" t="inlineStr">
         <is>
           <t>1000</t>
         </is>
       </c>
-      <c r="L4" s="0" t="inlineStr">
+      <c r="L9" s="0" t="inlineStr">
         <is>
           <t>Acreditación</t>
         </is>
       </c>
     </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>Gobierno Ciudadano
-</t>
-        </is>
-      </c>
-      <c r="B5" s="0" t="inlineStr">
-        <is>
-          <t>Secretaría de Finanzas</t>
-        </is>
-      </c>
-      <c r="C5" s="0" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="D5" s="0" t="inlineStr">
+    <row r="10" spans="1:12">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>Gobierno Ciudadano
+</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="D10" s="0" t="inlineStr">
         <is>
           <t>Propósito</t>
         </is>
       </c>
-      <c r="E5" s="0" t="inlineStr">
+      <c r="E10" s="0" t="inlineStr">
         <is>
           <t>5988</t>
         </is>
       </c>
-      <c r="F5" s="0" t="inlineStr">
+      <c r="F10" s="0" t="inlineStr">
         <is>
           <t>qwe</t>
         </is>
       </c>
-      <c r="G5" s="0" t="inlineStr">
+      <c r="G10" s="0" t="inlineStr">
         <is>
           <t>Modificado</t>
         </is>
       </c>
-      <c r="H5" s="0" t="inlineStr">
+      <c r="H10" s="0" t="inlineStr">
         <is>
           <t>Programa Presupuestario 101</t>
         </is>
       </c>
-      <c r="I5" s="0" t="inlineStr">
+      <c r="I10" s="0" t="inlineStr">
         <is>
           <t>qweqwe</t>
         </is>
       </c>
-      <c r="J5" s="0" t="inlineStr">
+      <c r="J10" s="0" t="inlineStr">
         <is>
           <t>Indicado 1</t>
         </is>
       </c>
-      <c r="K5" s="0" t="inlineStr">
+      <c r="K10" s="0" t="inlineStr">
         <is>
           <t>100</t>
         </is>
       </c>
-      <c r="L5" s="0" t="inlineStr">
+      <c r="L10" s="0" t="inlineStr">
         <is>
           <t>Acometida</t>
         </is>
       </c>
     </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>Gobierno Ciudadano
-</t>
-        </is>
-      </c>
-      <c r="B6" s="0" t="inlineStr">
-        <is>
-          <t>Secretaría de Finanzas</t>
-        </is>
-      </c>
-      <c r="C6" s="0" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="D6" s="0" t="inlineStr">
+    <row r="11" spans="1:12">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>Gobierno Ciudadano
+</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="D11" s="0" t="inlineStr">
         <is>
           <t>Propósito</t>
         </is>
       </c>
-      <c r="E6" s="0" t="inlineStr">
+      <c r="E11" s="0" t="inlineStr">
         <is>
           <t>5997</t>
         </is>
       </c>
-      <c r="F6" s="0" t="inlineStr">
+      <c r="F11" s="0" t="inlineStr">
         <is>
           <t>aa</t>
         </is>
       </c>
-      <c r="G6" s="0" t="inlineStr">
+      <c r="G11" s="0" t="inlineStr">
         <is>
           <t>aa</t>
         </is>
       </c>
-      <c r="H6" s="0" t="inlineStr">
+      <c r="H11" s="0" t="inlineStr">
         <is>
           <t>Programa Presupuestario 5</t>
         </is>
       </c>
-      <c r="I6" s="0" t="inlineStr">
+      <c r="I11" s="0" t="inlineStr">
         <is>
           <t>aa</t>
         </is>
       </c>
-      <c r="J6" s="0" t="inlineStr">
+      <c r="J11" s="0" t="inlineStr">
         <is>
           <t>Indicador 1</t>
         </is>
       </c>
-      <c r="K6" s="0" t="inlineStr">
+      <c r="K11" s="0" t="inlineStr">
         <is>
           <t>1323</t>
         </is>
       </c>
-      <c r="L6" s="0" t="inlineStr">
+      <c r="L11" s="0" t="inlineStr">
         <is>
           <t>Acervo</t>
         </is>
       </c>
     </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>Gobierno Ciudadano
-</t>
-        </is>
-      </c>
-      <c r="B7" s="0" t="inlineStr">
-        <is>
-          <t>Secretaría de Finanzas</t>
-        </is>
-      </c>
-      <c r="C7" s="0" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="D7" s="0" t="inlineStr">
+    <row r="12" spans="1:12">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>Gobierno Ciudadano
+</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="D12" s="0" t="inlineStr">
         <is>
           <t>Componente</t>
         </is>
       </c>
-      <c r="E7" s="0" t="inlineStr">
+      <c r="E12" s="0" t="inlineStr">
         <is>
           <t>5529</t>
         </is>
       </c>
-      <c r="F7" s="0" t="inlineStr">
+      <c r="F12" s="0" t="inlineStr">
         <is>
           <t>Optimizar la generación de recursos propios estatales </t>
         </is>
       </c>
-      <c r="G7" s="0" t="inlineStr">
+      <c r="G12" s="0" t="inlineStr">
         <is>
           <t>Subasta pública electrónica</t>
         </is>
       </c>
-      <c r="H7" s="0" t="inlineStr">
+      <c r="H12" s="0" t="inlineStr">
         <is>
           <t>Programa Presupuestario 3</t>
         </is>
       </c>
-      <c r="I7" s="0" t="inlineStr">
+      <c r="I12" s="0" t="inlineStr">
         <is>
           <t>Aprovechar los recursos propios</t>
         </is>
       </c>
-      <c r="J7" s="0" t="inlineStr">
+      <c r="J12" s="0" t="inlineStr">
         <is>
           <t>Monto de los recursos subastados a través del Portal web público</t>
         </is>
       </c>
-      <c r="K7" s="0" t="inlineStr">
+      <c r="K12" s="0" t="inlineStr">
         <is>
           <t>100</t>
         </is>
       </c>
-      <c r="L7" s="0" t="inlineStr">
+      <c r="L12" s="0" t="inlineStr">
         <is>
           <t>Porcentaje de Avance</t>
         </is>
       </c>
     </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>Gobierno Ciudadano
-</t>
-        </is>
-      </c>
-      <c r="B8" s="0" t="inlineStr">
-        <is>
-          <t>Secretaría de Finanzas</t>
-        </is>
-      </c>
-      <c r="C8" s="0" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="D8" s="0" t="inlineStr">
+    <row r="13" spans="1:12">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>Gobierno Ciudadano
+</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="D13" s="0" t="inlineStr">
         <is>
           <t>Estrategia</t>
         </is>
       </c>
-      <c r="E8" s="0" t="inlineStr">
+      <c r="E13" s="0" t="inlineStr">
         <is>
           <t>5990</t>
         </is>
       </c>
-      <c r="F8" s="0" t="inlineStr">
+      <c r="F13" s="0" t="inlineStr">
         <is>
           <t>aa</t>
         </is>
       </c>
-      <c r="G8" s="0" t="inlineStr">
+      <c r="G13" s="0" t="inlineStr">
         <is>
           <t>aaa</t>
         </is>
       </c>
-      <c r="H8" s="0" t="inlineStr">
+      <c r="H13" s="0" t="inlineStr">
         <is>
           <t>Programa Presupuestario 101</t>
         </is>
       </c>
-      <c r="I8" s="0" t="inlineStr">
+      <c r="I13" s="0" t="inlineStr">
         <is>
           <t>aaa</t>
         </is>
       </c>
-      <c r="J8" s="0" t="inlineStr">
+      <c r="J13" s="0" t="inlineStr">
         <is>
           <t>Indicador de prueba Mir 2</t>
         </is>
       </c>
-      <c r="K8" s="0" t="inlineStr">
+      <c r="K13" s="0" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="L8" s="0" t="inlineStr">
+      <c r="L13" s="0" t="inlineStr">
         <is>
           <t>Apoyo</t>
         </is>
       </c>
     </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>Gobierno Ciudadano
-</t>
-        </is>
-      </c>
-      <c r="B9" s="0" t="inlineStr">
-        <is>
-          <t>Secretaría de Finanzas</t>
-        </is>
-      </c>
-      <c r="C9" s="0" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="D9" s="0" t="inlineStr">
+    <row r="14" spans="1:12">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>Gobierno Ciudadano
+</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="D14" s="0" t="inlineStr">
+        <is>
+          <t>Propósito</t>
+        </is>
+      </c>
+      <c r="E14" s="0" t="inlineStr">
+        <is>
+          <t>5988</t>
+        </is>
+      </c>
+      <c r="F14" s="0" t="inlineStr">
+        <is>
+          <t>qwe</t>
+        </is>
+      </c>
+      <c r="G14" s="0" t="inlineStr">
+        <is>
+          <t>Modificado</t>
+        </is>
+      </c>
+      <c r="H14" s="0" t="inlineStr">
+        <is>
+          <t>Programa Presupuestario 101</t>
+        </is>
+      </c>
+      <c r="I14" s="0" t="inlineStr">
+        <is>
+          <t>qweqwe</t>
+        </is>
+      </c>
+      <c r="J14" s="0" t="inlineStr">
+        <is>
+          <t>Prueba</t>
+        </is>
+      </c>
+      <c r="K14" s="0" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="L14" s="0" t="inlineStr">
+        <is>
+          <t>Albergue</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>Gobierno Ciudadano
+</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="D15" s="0" t="inlineStr">
         <is>
           <t>Actividad</t>
         </is>
       </c>
-      <c r="E9" s="0" t="inlineStr">
+      <c r="E15" s="0" t="inlineStr">
         <is>
           <t>5999</t>
         </is>
       </c>
-      <c r="F9" s="0" t="inlineStr">
+      <c r="F15" s="0" t="inlineStr">
         <is>
           <t>Objetivo Prueba Reportes 001</t>
         </is>
       </c>
-      <c r="G9" s="0" t="inlineStr">
+      <c r="G15" s="0" t="inlineStr">
         <is>
           <t>Estrategia Prueba Reportes 001</t>
         </is>
       </c>
-      <c r="H9" s="0" t="inlineStr">
+      <c r="H15" s="0" t="inlineStr">
         <is>
           <t>Programa Presupuestario 9</t>
         </is>
       </c>
-      <c r="I9" s="0" t="inlineStr">
+      <c r="I15" s="0" t="inlineStr">
         <is>
           <t>Descripción Prueba Reportes 001</t>
         </is>
       </c>
-      <c r="J9" s="0" t="inlineStr">
+      <c r="J15" s="0" t="inlineStr">
         <is>
           <t>Indicador Prueba Reportes 001</t>
         </is>
       </c>
-      <c r="K9" s="0" t="inlineStr">
+      <c r="K15" s="0" t="inlineStr">
         <is>
           <t>5000</t>
         </is>
       </c>
-      <c r="L9" s="0" t="inlineStr">
+      <c r="L15" s="0" t="inlineStr">
         <is>
           <t>Acreditación</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>Gobierno Ciudadano
-</t>
-        </is>
-      </c>
-      <c r="B10" s="0" t="inlineStr">
-        <is>
-          <t>Secretaría de Finanzas</t>
-        </is>
-      </c>
-      <c r="C10" s="0" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="D10" s="0" t="inlineStr">
-        <is>
-          <t>Propósito</t>
-        </is>
-      </c>
-      <c r="E10" s="0" t="inlineStr">
-        <is>
-          <t>5988</t>
-        </is>
-      </c>
-      <c r="F10" s="0" t="inlineStr">
-        <is>
-          <t>qwe</t>
-        </is>
-      </c>
-      <c r="G10" s="0" t="inlineStr">
-        <is>
-          <t>Modificado</t>
-        </is>
-      </c>
-      <c r="H10" s="0" t="inlineStr">
-        <is>
-          <t>Programa Presupuestario 101</t>
-        </is>
-      </c>
-      <c r="I10" s="0" t="inlineStr">
-        <is>
-          <t>qweqwe</t>
-        </is>
-      </c>
-      <c r="J10" s="0" t="inlineStr">
-        <is>
-          <t>Prueba</t>
-        </is>
-      </c>
-      <c r="K10" s="0" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="L10" s="0" t="inlineStr">
-        <is>
-          <t>Albergue</t>
         </is>
       </c>
     </row>

--- a/public/reportes/POAS.xlsx
+++ b/public/reportes/POAS.xlsx
@@ -27,12 +27,12 @@
       <i/>
     </font>
     <font>
-      <sz val="20"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="20"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
@@ -69,10 +69,10 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -109,14 +109,20 @@
         </is>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="inlineStr">
         <is>
           <t>Eje</t>
         </is>
       </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>Gobierno Ciudadano
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="inlineStr">
         <is>
           <t>Objetivo de Gobierno</t>
@@ -138,10 +144,10 @@
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>06-18-2022 12:25:36 pm</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
+          <t>06-20-2022 05:48:43 pm</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="inlineStr">
         <is>
           <t>POA (SF)</t>
         </is>
@@ -192,7 +198,7 @@
     <row r="11" spans="1:8">
       <c r="A11" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B11" s="0" t="inlineStr">
@@ -210,7 +216,7 @@
           <t>Cultura</t>
         </is>
       </c>
-      <c r="E11" s="3" t="inlineStr">
+      <c r="E11" s="2" t="inlineStr">
         <is>
           <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
 </t>
@@ -235,7 +241,7 @@
     <row r="12" spans="1:8">
       <c r="A12" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B12" s="0" t="inlineStr">
@@ -253,7 +259,7 @@
           <t>Cultura</t>
         </is>
       </c>
-      <c r="E12" s="3" t="inlineStr">
+      <c r="E12" s="2" t="inlineStr">
         <is>
           <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
 </t>
@@ -278,7 +284,7 @@
     <row r="13" spans="1:8">
       <c r="A13" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B13" s="0" t="inlineStr">
@@ -296,7 +302,7 @@
           <t>Cultura</t>
         </is>
       </c>
-      <c r="E13" s="3" t="inlineStr">
+      <c r="E13" s="2" t="inlineStr">
         <is>
           <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
 </t>
@@ -321,7 +327,7 @@
     <row r="14" spans="1:8">
       <c r="A14" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B14" s="0" t="inlineStr">
@@ -339,7 +345,7 @@
           <t>Cultura</t>
         </is>
       </c>
-      <c r="E14" s="3" t="inlineStr">
+      <c r="E14" s="2" t="inlineStr">
         <is>
           <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
 </t>
@@ -364,7 +370,7 @@
     <row r="15" spans="1:8">
       <c r="A15" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B15" s="0" t="inlineStr">
@@ -382,7 +388,7 @@
           <t>Cultura</t>
         </is>
       </c>
-      <c r="E15" s="3" t="inlineStr">
+      <c r="E15" s="2" t="inlineStr">
         <is>
           <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
 </t>
@@ -407,7 +413,7 @@
     <row r="16" spans="1:8">
       <c r="A16" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B16" s="0" t="inlineStr">
@@ -425,7 +431,7 @@
           <t>Cultura</t>
         </is>
       </c>
-      <c r="E16" s="3" t="inlineStr">
+      <c r="E16" s="2" t="inlineStr">
         <is>
           <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
 </t>
@@ -450,7 +456,7 @@
     <row r="17" spans="1:8">
       <c r="A17" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B17" s="0" t="inlineStr">
@@ -468,7 +474,7 @@
           <t>Cultura</t>
         </is>
       </c>
-      <c r="E17" s="3" t="inlineStr">
+      <c r="E17" s="2" t="inlineStr">
         <is>
           <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
 </t>
@@ -493,7 +499,7 @@
     <row r="18" spans="1:8">
       <c r="A18" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B18" s="0" t="inlineStr">
@@ -511,7 +517,7 @@
           <t>Cultura</t>
         </is>
       </c>
-      <c r="E18" s="3" t="inlineStr">
+      <c r="E18" s="2" t="inlineStr">
         <is>
           <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
 </t>
@@ -536,7 +542,7 @@
     <row r="19" spans="1:8">
       <c r="A19" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B19" s="0" t="inlineStr">
@@ -554,7 +560,7 @@
           <t>Cultura</t>
         </is>
       </c>
-      <c r="E19" s="3" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
 </t>
@@ -579,7 +585,7 @@
     <row r="20" spans="1:8">
       <c r="A20" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B20" s="0" t="inlineStr">
@@ -597,7 +603,7 @@
           <t>Cultura</t>
         </is>
       </c>
-      <c r="E20" s="3" t="inlineStr">
+      <c r="E20" s="2" t="inlineStr">
         <is>
           <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
 </t>
@@ -622,7 +628,7 @@
     <row r="21" spans="1:8">
       <c r="A21" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B21" s="0" t="inlineStr">
@@ -640,7 +646,7 @@
           <t>Cultura</t>
         </is>
       </c>
-      <c r="E21" s="3" t="inlineStr">
+      <c r="E21" s="2" t="inlineStr">
         <is>
           <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
 </t>
@@ -665,7 +671,7 @@
     <row r="22" spans="1:8">
       <c r="A22" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B22" s="0" t="inlineStr">
@@ -683,7 +689,7 @@
           <t>Cultura</t>
         </is>
       </c>
-      <c r="E22" s="3" t="inlineStr">
+      <c r="E22" s="2" t="inlineStr">
         <is>
           <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
 </t>
@@ -708,7 +714,7 @@
     <row r="23" spans="1:8">
       <c r="A23" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B23" s="0" t="inlineStr">
@@ -726,7 +732,7 @@
           <t>Cultura</t>
         </is>
       </c>
-      <c r="E23" s="3" t="inlineStr">
+      <c r="E23" s="2" t="inlineStr">
         <is>
           <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
 </t>
@@ -751,7 +757,7 @@
     <row r="24" spans="1:8">
       <c r="A24" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B24" s="0" t="inlineStr">
@@ -769,7 +775,7 @@
           <t>Cultura</t>
         </is>
       </c>
-      <c r="E24" s="3" t="inlineStr">
+      <c r="E24" s="2" t="inlineStr">
         <is>
           <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
 </t>
@@ -794,7 +800,7 @@
     <row r="25" spans="1:8">
       <c r="A25" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B25" s="0" t="inlineStr">
@@ -812,7 +818,7 @@
           <t>Cultura</t>
         </is>
       </c>
-      <c r="E25" s="3" t="inlineStr">
+      <c r="E25" s="2" t="inlineStr">
         <is>
           <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
 </t>
@@ -837,7 +843,7 @@
     <row r="26" spans="1:8">
       <c r="A26" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B26" s="0" t="inlineStr">
@@ -855,7 +861,7 @@
           <t>Cultura</t>
         </is>
       </c>
-      <c r="E26" s="3" t="inlineStr">
+      <c r="E26" s="2" t="inlineStr">
         <is>
           <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
 </t>
@@ -880,7 +886,7 @@
     <row r="27" spans="1:8">
       <c r="A27" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B27" s="0" t="inlineStr">
@@ -898,7 +904,7 @@
           <t>Cultura</t>
         </is>
       </c>
-      <c r="E27" s="3" t="inlineStr">
+      <c r="E27" s="2" t="inlineStr">
         <is>
           <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
 </t>
@@ -923,7 +929,7 @@
     <row r="28" spans="1:8">
       <c r="A28" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B28" s="0" t="inlineStr">
@@ -941,7 +947,7 @@
           <t>Cultura</t>
         </is>
       </c>
-      <c r="E28" s="3" t="inlineStr">
+      <c r="E28" s="2" t="inlineStr">
         <is>
           <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
 </t>
@@ -966,7 +972,7 @@
     <row r="29" spans="1:8">
       <c r="A29" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B29" s="0" t="inlineStr">
@@ -984,7 +990,7 @@
           <t>Cultura</t>
         </is>
       </c>
-      <c r="E29" s="3" t="inlineStr">
+      <c r="E29" s="2" t="inlineStr">
         <is>
           <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
 </t>
@@ -1009,7 +1015,7 @@
     <row r="30" spans="1:8">
       <c r="A30" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B30" s="0" t="inlineStr">
@@ -1027,7 +1033,7 @@
           <t>Cultura</t>
         </is>
       </c>
-      <c r="E30" s="3" t="inlineStr">
+      <c r="E30" s="2" t="inlineStr">
         <is>
           <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
 </t>
@@ -1052,7 +1058,7 @@
     <row r="31" spans="1:8">
       <c r="A31" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B31" s="0" t="inlineStr">
@@ -1070,7 +1076,7 @@
           <t>Cultura</t>
         </is>
       </c>
-      <c r="E31" s="3" t="inlineStr">
+      <c r="E31" s="2" t="inlineStr">
         <is>
           <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
 </t>
@@ -1095,7 +1101,7 @@
     <row r="32" spans="1:8">
       <c r="A32" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B32" s="0" t="inlineStr">
@@ -1113,7 +1119,7 @@
           <t>Cultura</t>
         </is>
       </c>
-      <c r="E32" s="3" t="inlineStr">
+      <c r="E32" s="2" t="inlineStr">
         <is>
           <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
 </t>
@@ -1138,7 +1144,7 @@
     <row r="33" spans="1:8">
       <c r="A33" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B33" s="0" t="inlineStr">
@@ -1156,7 +1162,7 @@
           <t>Cultura</t>
         </is>
       </c>
-      <c r="E33" s="3" t="inlineStr">
+      <c r="E33" s="2" t="inlineStr">
         <is>
           <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
 </t>
@@ -1181,7 +1187,7 @@
     <row r="34" spans="1:8">
       <c r="A34" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B34" s="0" t="inlineStr">
@@ -1199,7 +1205,7 @@
           <t>Cultura</t>
         </is>
       </c>
-      <c r="E34" s="3" t="inlineStr">
+      <c r="E34" s="2" t="inlineStr">
         <is>
           <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
 </t>
@@ -1224,7 +1230,7 @@
     <row r="35" spans="1:8">
       <c r="A35" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B35" s="0" t="inlineStr">
@@ -1242,7 +1248,7 @@
           <t>Cultura</t>
         </is>
       </c>
-      <c r="E35" s="3" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
         <is>
           <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
 </t>
@@ -1267,7 +1273,7 @@
     <row r="36" spans="1:8">
       <c r="A36" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B36" s="0" t="inlineStr">
@@ -1285,7 +1291,7 @@
           <t>Cultura</t>
         </is>
       </c>
-      <c r="E36" s="3" t="inlineStr">
+      <c r="E36" s="2" t="inlineStr">
         <is>
           <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
 </t>
@@ -1310,7 +1316,7 @@
     <row r="37" spans="1:8">
       <c r="A37" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B37" s="0" t="inlineStr">
@@ -1328,7 +1334,7 @@
           <t>Cultura</t>
         </is>
       </c>
-      <c r="E37" s="3" t="inlineStr">
+      <c r="E37" s="2" t="inlineStr">
         <is>
           <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
 </t>
@@ -1353,7 +1359,7 @@
     <row r="38" spans="1:8">
       <c r="A38" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B38" s="0" t="inlineStr">
@@ -1371,7 +1377,7 @@
           <t>Cultura</t>
         </is>
       </c>
-      <c r="E38" s="3" t="inlineStr">
+      <c r="E38" s="2" t="inlineStr">
         <is>
           <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
 </t>
@@ -1396,7 +1402,7 @@
     <row r="39" spans="1:8">
       <c r="A39" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B39" s="0" t="inlineStr">
@@ -1414,7 +1420,7 @@
           <t>Cultura</t>
         </is>
       </c>
-      <c r="E39" s="3" t="inlineStr">
+      <c r="E39" s="2" t="inlineStr">
         <is>
           <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
 </t>
@@ -1439,7 +1445,7 @@
     <row r="40" spans="1:8">
       <c r="A40" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B40" s="0" t="inlineStr">
@@ -1457,7 +1463,7 @@
           <t>Cultura</t>
         </is>
       </c>
-      <c r="E40" s="3" t="inlineStr">
+      <c r="E40" s="2" t="inlineStr">
         <is>
           <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
 </t>
@@ -1482,7 +1488,7 @@
     <row r="41" spans="1:8">
       <c r="A41" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B41" s="0" t="inlineStr">
@@ -1500,7 +1506,7 @@
           <t>Cultura</t>
         </is>
       </c>
-      <c r="E41" s="3" t="inlineStr">
+      <c r="E41" s="2" t="inlineStr">
         <is>
           <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
 </t>
@@ -1525,7 +1531,7 @@
     <row r="42" spans="1:8">
       <c r="A42" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B42" s="0" t="inlineStr">
@@ -1543,7 +1549,7 @@
           <t>Cultura</t>
         </is>
       </c>
-      <c r="E42" s="3" t="inlineStr">
+      <c r="E42" s="2" t="inlineStr">
         <is>
           <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
 </t>
@@ -1568,7 +1574,7 @@
     <row r="43" spans="1:8">
       <c r="A43" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B43" s="0" t="inlineStr">
@@ -1586,7 +1592,7 @@
           <t>Cultura</t>
         </is>
       </c>
-      <c r="E43" s="3" t="inlineStr">
+      <c r="E43" s="2" t="inlineStr">
         <is>
           <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
 </t>
@@ -1611,7 +1617,7 @@
     <row r="44" spans="1:8">
       <c r="A44" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B44" s="0" t="inlineStr">
@@ -1629,7 +1635,7 @@
           <t>Cultura</t>
         </is>
       </c>
-      <c r="E44" s="3" t="inlineStr">
+      <c r="E44" s="2" t="inlineStr">
         <is>
           <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
 </t>
@@ -1654,7 +1660,7 @@
     <row r="45" spans="1:8">
       <c r="A45" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B45" s="0" t="inlineStr">
@@ -1672,7 +1678,7 @@
           <t>Cultura</t>
         </is>
       </c>
-      <c r="E45" s="3" t="inlineStr">
+      <c r="E45" s="2" t="inlineStr">
         <is>
           <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
 </t>
@@ -1697,7 +1703,7 @@
     <row r="46" spans="1:8">
       <c r="A46" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B46" s="0" t="inlineStr">
@@ -1715,7 +1721,7 @@
           <t>Cultura</t>
         </is>
       </c>
-      <c r="E46" s="3" t="inlineStr">
+      <c r="E46" s="2" t="inlineStr">
         <is>
           <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
 </t>
@@ -1740,7 +1746,7 @@
     <row r="47" spans="1:8">
       <c r="A47" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B47" s="0" t="inlineStr">
@@ -1758,7 +1764,7 @@
           <t>Cultura</t>
         </is>
       </c>
-      <c r="E47" s="3" t="inlineStr">
+      <c r="E47" s="2" t="inlineStr">
         <is>
           <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
 </t>
@@ -1783,7 +1789,7 @@
     <row r="48" spans="1:8">
       <c r="A48" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B48" s="0" t="inlineStr">
@@ -1801,7 +1807,7 @@
           <t>Cultura</t>
         </is>
       </c>
-      <c r="E48" s="3" t="inlineStr">
+      <c r="E48" s="2" t="inlineStr">
         <is>
           <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
 </t>
@@ -1826,7 +1832,7 @@
     <row r="49" spans="1:8">
       <c r="A49" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B49" s="0" t="inlineStr">
@@ -1844,7 +1850,7 @@
           <t>Cultura</t>
         </is>
       </c>
-      <c r="E49" s="3" t="inlineStr">
+      <c r="E49" s="2" t="inlineStr">
         <is>
           <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
 </t>
@@ -1869,7 +1875,7 @@
     <row r="50" spans="1:8">
       <c r="A50" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B50" s="0" t="inlineStr">
@@ -1887,7 +1893,7 @@
           <t>Cultura</t>
         </is>
       </c>
-      <c r="E50" s="3" t="inlineStr">
+      <c r="E50" s="2" t="inlineStr">
         <is>
           <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
 </t>
@@ -1912,7 +1918,7 @@
     <row r="51" spans="1:8">
       <c r="A51" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B51" s="0" t="inlineStr">
@@ -1930,7 +1936,7 @@
           <t>Cultura</t>
         </is>
       </c>
-      <c r="E51" s="3" t="inlineStr">
+      <c r="E51" s="2" t="inlineStr">
         <is>
           <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
 </t>
@@ -1955,7 +1961,7 @@
     <row r="52" spans="1:8">
       <c r="A52" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B52" s="0" t="inlineStr">
@@ -1973,7 +1979,7 @@
           <t>Cultura</t>
         </is>
       </c>
-      <c r="E52" s="3" t="inlineStr">
+      <c r="E52" s="2" t="inlineStr">
         <is>
           <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
 </t>
@@ -1998,7 +2004,7 @@
     <row r="53" spans="1:8">
       <c r="A53" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B53" s="0" t="inlineStr">
@@ -2016,7 +2022,7 @@
           <t>Cultura</t>
         </is>
       </c>
-      <c r="E53" s="3" t="inlineStr">
+      <c r="E53" s="2" t="inlineStr">
         <is>
           <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
 </t>
@@ -2041,7 +2047,7 @@
     <row r="54" spans="1:8">
       <c r="A54" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B54" s="0" t="inlineStr">
@@ -2059,7 +2065,7 @@
           <t>Cultura</t>
         </is>
       </c>
-      <c r="E54" s="3" t="inlineStr">
+      <c r="E54" s="2" t="inlineStr">
         <is>
           <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
 </t>
@@ -2084,7 +2090,7 @@
     <row r="55" spans="1:8">
       <c r="A55" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B55" s="0" t="inlineStr">
@@ -2102,7 +2108,7 @@
           <t>Cultura</t>
         </is>
       </c>
-      <c r="E55" s="3" t="inlineStr">
+      <c r="E55" s="2" t="inlineStr">
         <is>
           <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
 </t>
@@ -2127,7 +2133,7 @@
     <row r="56" spans="1:8">
       <c r="A56" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B56" s="0" t="inlineStr">
@@ -2145,7 +2151,7 @@
           <t>Cultura</t>
         </is>
       </c>
-      <c r="E56" s="3" t="inlineStr">
+      <c r="E56" s="2" t="inlineStr">
         <is>
           <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
 </t>
@@ -2170,7 +2176,7 @@
     <row r="57" spans="1:8">
       <c r="A57" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B57" s="0" t="inlineStr">
@@ -2188,7 +2194,7 @@
           <t>Cultura</t>
         </is>
       </c>
-      <c r="E57" s="3" t="inlineStr">
+      <c r="E57" s="2" t="inlineStr">
         <is>
           <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
 </t>
@@ -2213,7 +2219,7 @@
     <row r="58" spans="1:8">
       <c r="A58" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B58" s="0" t="inlineStr">
@@ -2231,7 +2237,7 @@
           <t>Cultura</t>
         </is>
       </c>
-      <c r="E58" s="3" t="inlineStr">
+      <c r="E58" s="2" t="inlineStr">
         <is>
           <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
 </t>
@@ -2256,7 +2262,7 @@
     <row r="59" spans="1:8">
       <c r="A59" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B59" s="0" t="inlineStr">
@@ -2274,7 +2280,7 @@
           <t>Cultura</t>
         </is>
       </c>
-      <c r="E59" s="3" t="inlineStr">
+      <c r="E59" s="2" t="inlineStr">
         <is>
           <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
 </t>
@@ -2299,7 +2305,7 @@
     <row r="60" spans="1:8">
       <c r="A60" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B60" s="0" t="inlineStr">
@@ -2317,7 +2323,7 @@
           <t>Cultura</t>
         </is>
       </c>
-      <c r="E60" s="3" t="inlineStr">
+      <c r="E60" s="2" t="inlineStr">
         <is>
           <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
 </t>
@@ -2342,7 +2348,7 @@
     <row r="61" spans="1:8">
       <c r="A61" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B61" s="0" t="inlineStr">
@@ -2360,7 +2366,7 @@
           <t>Cultura</t>
         </is>
       </c>
-      <c r="E61" s="3" t="inlineStr">
+      <c r="E61" s="2" t="inlineStr">
         <is>
           <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
 </t>
@@ -2385,7 +2391,7 @@
     <row r="62" spans="1:8">
       <c r="A62" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B62" s="0" t="inlineStr">
@@ -2403,7 +2409,7 @@
           <t>Cultura</t>
         </is>
       </c>
-      <c r="E62" s="3" t="inlineStr">
+      <c r="E62" s="2" t="inlineStr">
         <is>
           <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
 </t>
@@ -2428,7 +2434,7 @@
     <row r="63" spans="1:8">
       <c r="A63" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B63" s="0" t="inlineStr">
@@ -2446,7 +2452,7 @@
           <t>Cultura</t>
         </is>
       </c>
-      <c r="E63" s="3" t="inlineStr">
+      <c r="E63" s="2" t="inlineStr">
         <is>
           <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
 </t>
@@ -2471,7 +2477,7 @@
     <row r="64" spans="1:8">
       <c r="A64" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B64" s="0" t="inlineStr">
@@ -2489,7 +2495,7 @@
           <t>Cultura</t>
         </is>
       </c>
-      <c r="E64" s="3" t="inlineStr">
+      <c r="E64" s="2" t="inlineStr">
         <is>
           <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
 </t>
@@ -2514,7 +2520,7 @@
     <row r="65" spans="1:8">
       <c r="A65" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B65" s="0" t="inlineStr">
@@ -2532,7 +2538,7 @@
           <t>Cultura</t>
         </is>
       </c>
-      <c r="E65" s="3" t="inlineStr">
+      <c r="E65" s="2" t="inlineStr">
         <is>
           <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
 </t>
@@ -2557,7 +2563,7 @@
     <row r="66" spans="1:8">
       <c r="A66" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B66" s="0" t="inlineStr">
@@ -2575,7 +2581,7 @@
           <t>Cultura</t>
         </is>
       </c>
-      <c r="E66" s="3" t="inlineStr">
+      <c r="E66" s="2" t="inlineStr">
         <is>
           <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
 </t>
@@ -2600,7 +2606,7 @@
     <row r="67" spans="1:8">
       <c r="A67" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B67" s="0" t="inlineStr">
@@ -2618,7 +2624,7 @@
           <t>Cultura</t>
         </is>
       </c>
-      <c r="E67" s="3" t="inlineStr">
+      <c r="E67" s="2" t="inlineStr">
         <is>
           <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
 </t>
@@ -2643,7 +2649,7 @@
     <row r="68" spans="1:8">
       <c r="A68" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B68" s="0" t="inlineStr">
@@ -2661,7 +2667,7 @@
           <t>Cultura</t>
         </is>
       </c>
-      <c r="E68" s="3" t="inlineStr">
+      <c r="E68" s="2" t="inlineStr">
         <is>
           <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
 </t>
@@ -2686,7 +2692,7 @@
     <row r="69" spans="1:8">
       <c r="A69" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B69" s="0" t="inlineStr">
@@ -2704,7 +2710,7 @@
           <t>Cultura</t>
         </is>
       </c>
-      <c r="E69" s="3" t="inlineStr">
+      <c r="E69" s="2" t="inlineStr">
         <is>
           <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
 </t>
@@ -2729,7 +2735,7 @@
     <row r="70" spans="1:8">
       <c r="A70" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B70" s="0" t="inlineStr">
@@ -2747,7 +2753,7 @@
           <t>Cultura</t>
         </is>
       </c>
-      <c r="E70" s="3" t="inlineStr">
+      <c r="E70" s="2" t="inlineStr">
         <is>
           <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
 </t>
@@ -2772,7 +2778,7 @@
     <row r="71" spans="1:8">
       <c r="A71" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B71" s="0" t="inlineStr">
@@ -2790,7 +2796,7 @@
           <t>Cultura</t>
         </is>
       </c>
-      <c r="E71" s="3" t="inlineStr">
+      <c r="E71" s="2" t="inlineStr">
         <is>
           <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
 </t>
@@ -2815,7 +2821,7 @@
     <row r="72" spans="1:8">
       <c r="A72" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B72" s="0" t="inlineStr">
@@ -2833,7 +2839,7 @@
           <t>Cultura</t>
         </is>
       </c>
-      <c r="E72" s="3" t="inlineStr">
+      <c r="E72" s="2" t="inlineStr">
         <is>
           <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
 </t>
@@ -2858,7 +2864,7 @@
     <row r="73" spans="1:8">
       <c r="A73" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B73" s="0" t="inlineStr">
@@ -2876,7 +2882,7 @@
           <t>Cultura</t>
         </is>
       </c>
-      <c r="E73" s="3" t="inlineStr">
+      <c r="E73" s="2" t="inlineStr">
         <is>
           <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
 </t>
@@ -2901,7 +2907,7 @@
     <row r="74" spans="1:8">
       <c r="A74" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B74" s="0" t="inlineStr">
@@ -2919,7 +2925,7 @@
           <t>Cultura</t>
         </is>
       </c>
-      <c r="E74" s="3" t="inlineStr">
+      <c r="E74" s="2" t="inlineStr">
         <is>
           <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
 </t>
@@ -2944,7 +2950,7 @@
     <row r="75" spans="1:8">
       <c r="A75" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B75" s="0" t="inlineStr">
@@ -2962,7 +2968,7 @@
           <t>Cultura</t>
         </is>
       </c>
-      <c r="E75" s="3" t="inlineStr">
+      <c r="E75" s="2" t="inlineStr">
         <is>
           <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
 </t>
@@ -2987,7 +2993,7 @@
     <row r="76" spans="1:8">
       <c r="A76" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B76" s="0" t="inlineStr">
@@ -3005,7 +3011,7 @@
           <t>Cultura</t>
         </is>
       </c>
-      <c r="E76" s="3" t="inlineStr">
+      <c r="E76" s="2" t="inlineStr">
         <is>
           <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
 </t>
@@ -3030,7 +3036,7 @@
     <row r="77" spans="1:8">
       <c r="A77" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B77" s="0" t="inlineStr">
@@ -3048,7 +3054,7 @@
           <t>Cultura</t>
         </is>
       </c>
-      <c r="E77" s="3" t="inlineStr">
+      <c r="E77" s="2" t="inlineStr">
         <is>
           <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
 </t>
@@ -3073,7 +3079,7 @@
     <row r="78" spans="1:8">
       <c r="A78" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B78" s="0" t="inlineStr">
@@ -3091,7 +3097,7 @@
           <t>Cultura</t>
         </is>
       </c>
-      <c r="E78" s="3" t="inlineStr">
+      <c r="E78" s="2" t="inlineStr">
         <is>
           <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
 </t>
@@ -3116,7 +3122,7 @@
     <row r="79" spans="1:8">
       <c r="A79" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B79" s="0" t="inlineStr">
@@ -3134,13 +3140,13 @@
           <t>Cultura</t>
         </is>
       </c>
-      <c r="E79" s="3" t="inlineStr">
-        <is>
-          <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
-</t>
-        </is>
-      </c>
-      <c r="F79" s="3" t="inlineStr">
+      <c r="E79" s="2" t="inlineStr">
+        <is>
+          <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
+</t>
+        </is>
+      </c>
+      <c r="F79" s="2" t="inlineStr">
         <is>
           <t>1. Regulaciones publicadas/Propuestas regulatorias agendadas.
 2. Porcentaje de reducción del costo de trámites y servicios/Porcentaje de reducción del costo de trámites y servicios programado.
@@ -3161,7 +3167,7 @@
     <row r="80" spans="1:8">
       <c r="A80" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B80" s="0" t="inlineStr">
@@ -3179,7 +3185,7 @@
           <t>Cultura</t>
         </is>
       </c>
-      <c r="E80" s="3" t="inlineStr">
+      <c r="E80" s="2" t="inlineStr">
         <is>
           <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
 </t>
@@ -3204,7 +3210,7 @@
     <row r="81" spans="1:8">
       <c r="A81" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B81" s="0" t="inlineStr">
@@ -3222,7 +3228,7 @@
           <t>Cultura</t>
         </is>
       </c>
-      <c r="E81" s="3" t="inlineStr">
+      <c r="E81" s="2" t="inlineStr">
         <is>
           <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
 </t>
@@ -3247,7 +3253,7 @@
     <row r="82" spans="1:8">
       <c r="A82" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B82" s="0" t="inlineStr">
@@ -3265,7 +3271,7 @@
           <t>Cultura</t>
         </is>
       </c>
-      <c r="E82" s="3" t="inlineStr">
+      <c r="E82" s="2" t="inlineStr">
         <is>
           <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
 </t>
@@ -3290,7 +3296,7 @@
     <row r="83" spans="1:8">
       <c r="A83" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B83" s="0" t="inlineStr">
@@ -3308,7 +3314,7 @@
           <t>Cultura</t>
         </is>
       </c>
-      <c r="E83" s="3" t="inlineStr">
+      <c r="E83" s="2" t="inlineStr">
         <is>
           <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
 </t>
@@ -3333,7 +3339,7 @@
     <row r="84" spans="1:8">
       <c r="A84" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B84" s="0" t="inlineStr">
@@ -3351,7 +3357,7 @@
           <t>Cultura</t>
         </is>
       </c>
-      <c r="E84" s="3" t="inlineStr">
+      <c r="E84" s="2" t="inlineStr">
         <is>
           <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
 </t>
@@ -3376,7 +3382,7 @@
     <row r="85" spans="1:8">
       <c r="A85" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B85" s="0" t="inlineStr">
@@ -3394,7 +3400,7 @@
           <t>Cultura</t>
         </is>
       </c>
-      <c r="E85" s="3" t="inlineStr">
+      <c r="E85" s="2" t="inlineStr">
         <is>
           <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
 </t>
@@ -3419,7 +3425,7 @@
     <row r="86" spans="1:8">
       <c r="A86" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B86" s="0" t="inlineStr">
@@ -3437,7 +3443,7 @@
           <t>Cultura</t>
         </is>
       </c>
-      <c r="E86" s="3" t="inlineStr">
+      <c r="E86" s="2" t="inlineStr">
         <is>
           <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
 </t>
@@ -3462,7 +3468,7 @@
     <row r="87" spans="1:8">
       <c r="A87" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B87" s="0" t="inlineStr">
@@ -3480,7 +3486,7 @@
           <t>Cultura</t>
         </is>
       </c>
-      <c r="E87" s="3" t="inlineStr">
+      <c r="E87" s="2" t="inlineStr">
         <is>
           <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
 </t>
@@ -3505,7 +3511,7 @@
     <row r="88" spans="1:8">
       <c r="A88" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B88" s="0" t="inlineStr">
@@ -3523,7 +3529,7 @@
           <t>Cultura</t>
         </is>
       </c>
-      <c r="E88" s="3" t="inlineStr">
+      <c r="E88" s="2" t="inlineStr">
         <is>
           <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
 </t>
@@ -3548,7 +3554,7 @@
     <row r="89" spans="1:8">
       <c r="A89" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B89" s="0" t="inlineStr">
@@ -3566,7 +3572,7 @@
           <t>Cultura</t>
         </is>
       </c>
-      <c r="E89" s="3" t="inlineStr">
+      <c r="E89" s="2" t="inlineStr">
         <is>
           <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
 </t>
@@ -3591,7 +3597,7 @@
     <row r="90" spans="1:8">
       <c r="A90" s="0" t="inlineStr">
         <is>
-          <t>Propósito</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B90" s="0" t="inlineStr">
@@ -3609,7 +3615,7 @@
           <t>Cultura</t>
         </is>
       </c>
-      <c r="E90" s="3" t="inlineStr">
+      <c r="E90" s="2" t="inlineStr">
         <is>
           <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
 </t>

--- a/public/reportes/POAS.xlsx
+++ b/public/reportes/POAS.xlsx
@@ -128,6 +128,11 @@
           <t>Objetivo de Gobierno</t>
         </is>
       </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>Generar condiciones de paz y tranquilidad para la ciudadanía, preservando en todo momento el Estado de derecho y cumpliendo el mandato de brindar protección a las personas y sus bienes, garantizando el derecho de acceso a la justicia, promoviendo la mediación comunitaria y aplicando la ley a cabalidad, privilegiando la rendición de cuentas y la participación comunitaria.</t>
+        </is>
+      </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="inlineStr">
@@ -136,105 +141,69 @@
         </is>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:1">
       <c r="A7" s="1" t="inlineStr">
         <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
           <t>Fecha</t>
         </is>
       </c>
-      <c r="B7" s="0" t="inlineStr">
-        <is>
-          <t>06-20-2022 05:48:43 pm</t>
-        </is>
-      </c>
-      <c r="E7" s="3" t="inlineStr">
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>06-20-2022 05:52:45 pm</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
         <is>
           <t>POA (SF)</t>
         </is>
       </c>
     </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="inlineStr">
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>Nivel</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr">
+      <c r="B11" s="1" t="inlineStr">
         <is>
           <t>Clave</t>
         </is>
       </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>Estrategia</t>
         </is>
       </c>
-      <c r="D10" s="1" t="inlineStr">
+      <c r="D11" s="1" t="inlineStr">
         <is>
           <t>Programa Presupuestario</t>
         </is>
       </c>
-      <c r="E10" s="1" t="inlineStr">
+      <c r="E11" s="1" t="inlineStr">
         <is>
           <t>Resumen Narrativo</t>
         </is>
       </c>
-      <c r="F10" s="1" t="inlineStr">
+      <c r="F11" s="1" t="inlineStr">
         <is>
           <t>Inidcadores</t>
         </is>
       </c>
-      <c r="G10" s="1" t="inlineStr">
+      <c r="G11" s="1" t="inlineStr">
         <is>
           <t>Meta</t>
         </is>
       </c>
-      <c r="H10" s="1" t="inlineStr">
+      <c r="H11" s="1" t="inlineStr">
         <is>
           <t>Unidad de Medida</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="0" t="inlineStr">
-        <is>
-          <t>Fin</t>
-        </is>
-      </c>
-      <c r="B11" s="0" t="inlineStr">
-        <is>
-          <t>4768</t>
-        </is>
-      </c>
-      <c r="C11" s="0" t="inlineStr">
-        <is>
-          <t>1.2.- Desarrollar herramientas para el financiamiento de proyectos que contribuyan a universalizar el acceso a los servicios de energía para todos los queretanos y a  desarrollar las industrias energéticas. </t>
-        </is>
-      </c>
-      <c r="D11" s="0" t="inlineStr">
-        <is>
-          <t>Cultura</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
-</t>
-        </is>
-      </c>
-      <c r="F11" s="0" t="inlineStr">
-        <is>
-          <t>Contar con el Fideicomiso para el Desarrollo Energético Sustentable</t>
-        </is>
-      </c>
-      <c r="G11" s="0" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="H11" s="0" t="inlineStr">
-        <is>
-          <t>Porcentaje de Avance</t>
         </is>
       </c>
     </row>
@@ -246,7 +215,7 @@
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>4769</t>
+          <t>4768</t>
         </is>
       </c>
       <c r="C12" s="0" t="inlineStr">
@@ -267,7 +236,7 @@
       </c>
       <c r="F12" s="0" t="inlineStr">
         <is>
-          <t>Contar con un programa de generación distribuída y abasto aislado de electricidad en edificios públicos.</t>
+          <t>Contar con el Fideicomiso para el Desarrollo Energético Sustentable</t>
         </is>
       </c>
       <c r="G12" s="0" t="inlineStr">
@@ -289,12 +258,12 @@
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>4770</t>
+          <t>4769</t>
         </is>
       </c>
       <c r="C13" s="0" t="inlineStr">
         <is>
-          <t>9.1.-  Facilitar la ejecución de proyectos de infraestructura energética que requieran el otorgamiento de permisos, licencias y autorizaciones, en el ámbito de su competencia</t>
+          <t>1.2.- Desarrollar herramientas para el financiamiento de proyectos que contribuyan a universalizar el acceso a los servicios de energía para todos los queretanos y a  desarrollar las industrias energéticas. </t>
         </is>
       </c>
       <c r="D13" s="0" t="inlineStr">
@@ -310,7 +279,7 @@
       </c>
       <c r="F13" s="0" t="inlineStr">
         <is>
-          <t>Contar con una ventanilla única para la realización de trámites de proyectos de impulso al desarrollo energético</t>
+          <t>Contar con un programa de generación distribuída y abasto aislado de electricidad en edificios públicos.</t>
         </is>
       </c>
       <c r="G13" s="0" t="inlineStr">
@@ -332,12 +301,12 @@
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>4771</t>
+          <t>4770</t>
         </is>
       </c>
       <c r="C14" s="0" t="inlineStr">
         <is>
-          <t>1.1.-  Proponer y coadyuvar en la adopción de mecanismos entre las administraciones federal, estatal y municipales, así como el sector privado, para garantizar el acceso de los queretanos a los servicio de energía. </t>
+          <t>9.1.-  Facilitar la ejecución de proyectos de infraestructura energética que requieran el otorgamiento de permisos, licencias y autorizaciones, en el ámbito de su competencia</t>
         </is>
       </c>
       <c r="D14" s="0" t="inlineStr">
@@ -353,12 +322,12 @@
       </c>
       <c r="F14" s="0" t="inlineStr">
         <is>
-          <t>Concretar acuerdos con al menos 10 de las autoridades federales, estatales y municipales con las que se relacione la AEEQ</t>
+          <t>Contar con una ventanilla única para la realización de trámites de proyectos de impulso al desarrollo energético</t>
         </is>
       </c>
       <c r="G14" s="0" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>100</t>
         </is>
       </c>
       <c r="H14" s="0" t="inlineStr">
@@ -375,7 +344,7 @@
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>4772</t>
+          <t>4771</t>
         </is>
       </c>
       <c r="C15" s="0" t="inlineStr">
@@ -396,12 +365,12 @@
       </c>
       <c r="F15" s="0" t="inlineStr">
         <is>
-          <t>Contar con acuerdos, convenios, contratos y asociaciones estratégicas con al menos 15 instituciones </t>
+          <t>Concretar acuerdos con al menos 10 de las autoridades federales, estatales y municipales con las que se relacione la AEEQ</t>
         </is>
       </c>
       <c r="G15" s="0" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H15" s="0" t="inlineStr">
@@ -418,12 +387,12 @@
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>4961</t>
+          <t>4772</t>
         </is>
       </c>
       <c r="C16" s="0" t="inlineStr">
         <is>
-          <t>Desarrollar y Difundir de manera clara y oportuna contenidos relacionados con la cohesión y bienestar social, eficiencia gubernamental, fortalecimiento a la seguridad, infraestructura en salud, educación, deporte, cultura, responsabilidad social, acceso a bienes y servicios y desarrollo Económico.</t>
+          <t>1.1.-  Proponer y coadyuvar en la adopción de mecanismos entre las administraciones federal, estatal y municipales, así como el sector privado, para garantizar el acceso de los queretanos a los servicio de energía. </t>
         </is>
       </c>
       <c r="D16" s="0" t="inlineStr">
@@ -439,12 +408,12 @@
       </c>
       <c r="F16" s="0" t="inlineStr">
         <is>
-          <t>Porcentaje de campañas realizadas</t>
+          <t>Contar con acuerdos, convenios, contratos y asociaciones estratégicas con al menos 15 instituciones </t>
         </is>
       </c>
       <c r="G16" s="0" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H16" s="0" t="inlineStr">
@@ -461,12 +430,12 @@
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>4962</t>
+          <t>4961</t>
         </is>
       </c>
       <c r="C17" s="0" t="inlineStr">
         <is>
-          <t>Realizar selección de proveedores de Servicios de Comunicación Social de radio, televisión, Prensa y medios digitales y complementarios.</t>
+          <t>Desarrollar y Difundir de manera clara y oportuna contenidos relacionados con la cohesión y bienestar social, eficiencia gubernamental, fortalecimiento a la seguridad, infraestructura en salud, educación, deporte, cultura, responsabilidad social, acceso a bienes y servicios y desarrollo Económico.</t>
         </is>
       </c>
       <c r="D17" s="0" t="inlineStr">
@@ -482,12 +451,12 @@
       </c>
       <c r="F17" s="0" t="inlineStr">
         <is>
-          <t>Registros en Sistema ComSoc</t>
+          <t>Porcentaje de campañas realizadas</t>
         </is>
       </c>
       <c r="G17" s="0" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H17" s="0" t="inlineStr">
@@ -504,12 +473,12 @@
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
-          <t>4963</t>
+          <t>4962</t>
         </is>
       </c>
       <c r="C18" s="0" t="inlineStr">
         <is>
-          <t>Procesar y analizar información generando documentos informativos de carácter oficial. </t>
+          <t>Realizar selección de proveedores de Servicios de Comunicación Social de radio, televisión, Prensa y medios digitales y complementarios.</t>
         </is>
       </c>
       <c r="D18" s="0" t="inlineStr">
@@ -525,12 +494,12 @@
       </c>
       <c r="F18" s="0" t="inlineStr">
         <is>
-          <t>Boletines de prensa alojados en http://www.queretaro.gob.mx/prensa</t>
+          <t>Registros en Sistema ComSoc</t>
         </is>
       </c>
       <c r="G18" s="0" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>120</t>
         </is>
       </c>
       <c r="H18" s="0" t="inlineStr">
@@ -547,12 +516,12 @@
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>4964</t>
+          <t>4963</t>
         </is>
       </c>
       <c r="C19" s="0" t="inlineStr">
         <is>
-          <t>Análisis, reducción y control de horas extra, primas sabatinas y dominicales</t>
+          <t>Procesar y analizar información generando documentos informativos de carácter oficial. </t>
         </is>
       </c>
       <c r="D19" s="0" t="inlineStr">
@@ -568,12 +537,12 @@
       </c>
       <c r="F19" s="0" t="inlineStr">
         <is>
-          <t>Gasto de mes corriente en conceptos de horas extras, reducción de primas sabatinas y dominicales de Oficialía Mayor/Gastos de mes corriente del año inmediato anerior en conceptos de horas extras, reducción de primas sabatinas y dominicales de Oficialía Mayor</t>
+          <t>Boletines de prensa alojados en http://www.queretaro.gob.mx/prensa</t>
         </is>
       </c>
       <c r="G19" s="0" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="H19" s="0" t="inlineStr">
@@ -590,12 +559,12 @@
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
-          <t>4965</t>
+          <t>4964</t>
         </is>
       </c>
       <c r="C20" s="0" t="inlineStr">
         <is>
-          <t>Mejorar la atención personalizada al ciudadano en el sector público, conforme a los criterios rectores de legalidad, competitividad, libre acceso, respeto, trabajo digno, responsabilidad social, sentido de urgencia, comunicación.</t>
+          <t>Análisis, reducción y control de horas extra, primas sabatinas y dominicales</t>
         </is>
       </c>
       <c r="D20" s="0" t="inlineStr">
@@ -611,12 +580,12 @@
       </c>
       <c r="F20" s="0" t="inlineStr">
         <is>
-          <t>Número de Servidores Públicos capacitados en alineación positiva / el número de Servidores publicos de primer nivel del sector centralizado del Poder Ejecutivo susceptible a capacitarse durante cada trimestre</t>
+          <t>Gasto de mes corriente en conceptos de horas extras, reducción de primas sabatinas y dominicales de Oficialía Mayor/Gastos de mes corriente del año inmediato anerior en conceptos de horas extras, reducción de primas sabatinas y dominicales de Oficialía Mayor</t>
         </is>
       </c>
       <c r="G20" s="0" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>30</t>
         </is>
       </c>
       <c r="H20" s="0" t="inlineStr">
@@ -633,12 +602,12 @@
       </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
-          <t>4966</t>
+          <t>4965</t>
         </is>
       </c>
       <c r="C21" s="0" t="inlineStr">
         <is>
-          <t>Reactivar el servicio de la casa de jubilado para cumplir con el objetivo del decreto para el cual fue creada.</t>
+          <t>Mejorar la atención personalizada al ciudadano en el sector público, conforme a los criterios rectores de legalidad, competitividad, libre acceso, respeto, trabajo digno, responsabilidad social, sentido de urgencia, comunicación.</t>
         </is>
       </c>
       <c r="D21" s="0" t="inlineStr">
@@ -654,7 +623,7 @@
       </c>
       <c r="F21" s="0" t="inlineStr">
         <is>
-          <t>Número de jubilados matriculados en servicios prestados por la casa del jubilado del trimestre corriente/Número de jubilados matriculados en servicios prestados en el mismo trimetre del año 2019</t>
+          <t>Número de Servidores Públicos capacitados en alineación positiva / el número de Servidores publicos de primer nivel del sector centralizado del Poder Ejecutivo susceptible a capacitarse durante cada trimestre</t>
         </is>
       </c>
       <c r="G21" s="0" t="inlineStr">
@@ -676,12 +645,12 @@
       </c>
       <c r="B22" s="0" t="inlineStr">
         <is>
-          <t>4967</t>
+          <t>4966</t>
         </is>
       </c>
       <c r="C22" s="0" t="inlineStr">
         <is>
-          <t>Actualización de los instrumentos administrativos de acuerdo a las nuevas atribuciones conferidas en los ordenamientos jurídicos.</t>
+          <t>Reactivar el servicio de la casa de jubilado para cumplir con el objetivo del decreto para el cual fue creada.</t>
         </is>
       </c>
       <c r="D22" s="0" t="inlineStr">
@@ -697,12 +666,12 @@
       </c>
       <c r="F22" s="0" t="inlineStr">
         <is>
-          <t>Número de manuales actualizados / Total de manuales a actualizar</t>
+          <t>Número de jubilados matriculados en servicios prestados por la casa del jubilado del trimestre corriente/Número de jubilados matriculados en servicios prestados en el mismo trimetre del año 2019</t>
         </is>
       </c>
       <c r="G22" s="0" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>100</t>
         </is>
       </c>
       <c r="H22" s="0" t="inlineStr">
@@ -719,12 +688,12 @@
       </c>
       <c r="B23" s="0" t="inlineStr">
         <is>
-          <t>4968</t>
+          <t>4967</t>
         </is>
       </c>
       <c r="C23" s="0" t="inlineStr">
         <is>
-          <t>Incrementar los servicios del acceso a internet de manera gratuita en escuelas, Dependencias y Organismos Públicos que dan atención a la ciudadanía, brindando herramientas de apoyo a la ciudadanía.</t>
+          <t>Actualización de los instrumentos administrativos de acuerdo a las nuevas atribuciones conferidas en los ordenamientos jurídicos.</t>
         </is>
       </c>
       <c r="D23" s="0" t="inlineStr">
@@ -740,12 +709,12 @@
       </c>
       <c r="F23" s="0" t="inlineStr">
         <is>
-          <t>Número de servicios de internet instalados durante el trimestre/ Número de servicios susceptibles a instalarse de manera adicional a lo largo del año en curso</t>
+          <t>Número de manuales actualizados / Total de manuales a actualizar</t>
         </is>
       </c>
       <c r="G23" s="0" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H23" s="0" t="inlineStr">
@@ -762,12 +731,12 @@
       </c>
       <c r="B24" s="0" t="inlineStr">
         <is>
-          <t>4969</t>
+          <t>4968</t>
         </is>
       </c>
       <c r="C24" s="0" t="inlineStr">
         <is>
-          <t>Evaluar las obligaciones y riesgos de cumplimiento de la norma ISO 37301 para capacitar y gestionar la implementación de requerimientos mediante un ente certificador</t>
+          <t>Incrementar los servicios del acceso a internet de manera gratuita en escuelas, Dependencias y Organismos Públicos que dan atención a la ciudadanía, brindando herramientas de apoyo a la ciudadanía.</t>
         </is>
       </c>
       <c r="D24" s="0" t="inlineStr">
@@ -783,12 +752,12 @@
       </c>
       <c r="F24" s="0" t="inlineStr">
         <is>
-          <t>Número de etapas concluidas en la preparación para la certificación concluidas/Número total de etapas en la preparación para la certificación</t>
+          <t>Número de servicios de internet instalados durante el trimestre/ Número de servicios susceptibles a instalarse de manera adicional a lo largo del año en curso</t>
         </is>
       </c>
       <c r="G24" s="0" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H24" s="0" t="inlineStr">
@@ -805,12 +774,12 @@
       </c>
       <c r="B25" s="0" t="inlineStr">
         <is>
-          <t>4970</t>
+          <t>4969</t>
         </is>
       </c>
       <c r="C25" s="0" t="inlineStr">
         <is>
-          <t>Ejecución del Plan Anual de Trabajo y de Control de Auditorías 2022 de la Oficialía Mayor.</t>
+          <t>Evaluar las obligaciones y riesgos de cumplimiento de la norma ISO 37301 para capacitar y gestionar la implementación de requerimientos mediante un ente certificador</t>
         </is>
       </c>
       <c r="D25" s="0" t="inlineStr">
@@ -826,7 +795,7 @@
       </c>
       <c r="F25" s="0" t="inlineStr">
         <is>
-          <t>Número de informes realizados/ Número de auditorías</t>
+          <t>Número de etapas concluidas en la preparación para la certificación concluidas/Número total de etapas en la preparación para la certificación</t>
         </is>
       </c>
       <c r="G25" s="0" t="inlineStr">
@@ -848,12 +817,12 @@
       </c>
       <c r="B26" s="0" t="inlineStr">
         <is>
-          <t>4971</t>
+          <t>4970</t>
         </is>
       </c>
       <c r="C26" s="0" t="inlineStr">
         <is>
-          <t>Regularización y actualización de expedientes de bienes inmuebles del Poder Ejecutivo del Estado de Querétaro</t>
+          <t>Ejecución del Plan Anual de Trabajo y de Control de Auditorías 2022 de la Oficialía Mayor.</t>
         </is>
       </c>
       <c r="D26" s="0" t="inlineStr">
@@ -869,7 +838,7 @@
       </c>
       <c r="F26" s="0" t="inlineStr">
         <is>
-          <t>Expedientes con datos actualizados/ Total de expedientes de bienes inmuebles.</t>
+          <t>Número de informes realizados/ Número de auditorías</t>
         </is>
       </c>
       <c r="G26" s="0" t="inlineStr">
@@ -891,12 +860,12 @@
       </c>
       <c r="B27" s="0" t="inlineStr">
         <is>
-          <t>4972</t>
+          <t>4971</t>
         </is>
       </c>
       <c r="C27" s="0" t="inlineStr">
         <is>
-          <t>Contar con información digitalizada de los expedientes de los servidores públicos a fin de solventar los requerimientos de los distintos entes fiscalizadores.</t>
+          <t>Regularización y actualización de expedientes de bienes inmuebles del Poder Ejecutivo del Estado de Querétaro</t>
         </is>
       </c>
       <c r="D27" s="0" t="inlineStr">
@@ -912,7 +881,7 @@
       </c>
       <c r="F27" s="0" t="inlineStr">
         <is>
-          <t>Número de expedientes digitalizados de servidores públicos activos/ Expedientes de servidores públicos Activos</t>
+          <t>Expedientes con datos actualizados/ Total de expedientes de bienes inmuebles.</t>
         </is>
       </c>
       <c r="G27" s="0" t="inlineStr">
@@ -934,12 +903,12 @@
       </c>
       <c r="B28" s="0" t="inlineStr">
         <is>
-          <t>4973</t>
+          <t>4972</t>
         </is>
       </c>
       <c r="C28" s="0" t="inlineStr">
         <is>
-          <t>Automatización de procesos de las Direcciones de la Oficialía Mayor.</t>
+          <t>Contar con información digitalizada de los expedientes de los servidores públicos a fin de solventar los requerimientos de los distintos entes fiscalizadores.</t>
         </is>
       </c>
       <c r="D28" s="0" t="inlineStr">
@@ -955,12 +924,12 @@
       </c>
       <c r="F28" s="0" t="inlineStr">
         <is>
-          <t>Número de sistemas implementados contra procesos a simplificar.</t>
+          <t>Número de expedientes digitalizados de servidores públicos activos/ Expedientes de servidores públicos Activos</t>
         </is>
       </c>
       <c r="G28" s="0" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>100</t>
         </is>
       </c>
       <c r="H28" s="0" t="inlineStr">
@@ -977,12 +946,12 @@
       </c>
       <c r="B29" s="0" t="inlineStr">
         <is>
-          <t>4974</t>
+          <t>4973</t>
         </is>
       </c>
       <c r="C29" s="0" t="inlineStr">
         <is>
-          <t>Implementación de manera electrónica el proceso de solicitud de arrendamiento de bienes inmuebles de dominio público a cargo de la oficialía Mayor</t>
+          <t>Automatización de procesos de las Direcciones de la Oficialía Mayor.</t>
         </is>
       </c>
       <c r="D29" s="0" t="inlineStr">
@@ -998,12 +967,12 @@
       </c>
       <c r="F29" s="0" t="inlineStr">
         <is>
-          <t>Número de etapas concluidas para la puesta en marcha del aplicativo web para el arrendamiento de inmuebles a cargo de Oficialía Mayor/ Total de etapas para la puesta en marcha del portal web para el arrendamiento de inmuebles a cargo de Oficialía Mayor</t>
+          <t>Número de sistemas implementados contra procesos a simplificar.</t>
         </is>
       </c>
       <c r="G29" s="0" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H29" s="0" t="inlineStr">
@@ -1020,12 +989,12 @@
       </c>
       <c r="B30" s="0" t="inlineStr">
         <is>
-          <t>4975</t>
+          <t>4974</t>
         </is>
       </c>
       <c r="C30" s="0" t="inlineStr">
         <is>
-          <t>Automatización de registro de bienes muebles e inmuebles</t>
+          <t>Implementación de manera electrónica el proceso de solicitud de arrendamiento de bienes inmuebles de dominio público a cargo de la oficialía Mayor</t>
         </is>
       </c>
       <c r="D30" s="0" t="inlineStr">
@@ -1041,7 +1010,7 @@
       </c>
       <c r="F30" s="0" t="inlineStr">
         <is>
-          <t>Expedientes integrados de bienes muebles e inmuebles / total de expedientes de bienes muebles e inmuebles</t>
+          <t>Número de etapas concluidas para la puesta en marcha del aplicativo web para el arrendamiento de inmuebles a cargo de Oficialía Mayor/ Total de etapas para la puesta en marcha del portal web para el arrendamiento de inmuebles a cargo de Oficialía Mayor</t>
         </is>
       </c>
       <c r="G30" s="0" t="inlineStr">
@@ -1063,12 +1032,12 @@
       </c>
       <c r="B31" s="0" t="inlineStr">
         <is>
-          <t>4976</t>
+          <t>4975</t>
         </is>
       </c>
       <c r="C31" s="0" t="inlineStr">
         <is>
-          <t>Digitalizar el proceso de refrendo y registro en el Padrón de Proveedores del PEEQ.</t>
+          <t>Automatización de registro de bienes muebles e inmuebles</t>
         </is>
       </c>
       <c r="D31" s="0" t="inlineStr">
@@ -1084,7 +1053,7 @@
       </c>
       <c r="F31" s="0" t="inlineStr">
         <is>
-          <t>Porcentaje de etapas concluidas de la implentación de la plataforma digital /Total de etapas para la implementación de la plataforma digital.</t>
+          <t>Expedientes integrados de bienes muebles e inmuebles / total de expedientes de bienes muebles e inmuebles</t>
         </is>
       </c>
       <c r="G31" s="0" t="inlineStr">
@@ -1106,12 +1075,12 @@
       </c>
       <c r="B32" s="0" t="inlineStr">
         <is>
-          <t>4977</t>
+          <t>4976</t>
         </is>
       </c>
       <c r="C32" s="0" t="inlineStr">
         <is>
-          <t>Implementar un mecanismo de control eficaz y digital para la carga de combustibles de unidades vehiculares del Poder Ejecutivo del Estado de Querétaro.</t>
+          <t>Digitalizar el proceso de refrendo y registro en el Padrón de Proveedores del PEEQ.</t>
         </is>
       </c>
       <c r="D32" s="0" t="inlineStr">
@@ -1127,12 +1096,12 @@
       </c>
       <c r="F32" s="0" t="inlineStr">
         <is>
-          <t>Unidades vehículares con sistema RFID instalado para la carga de combustible/ total de unidades vehiculares con codigo de barras susceptibles a cambiar de sistema de carga de cpmbustible.</t>
+          <t>Porcentaje de etapas concluidas de la implentación de la plataforma digital /Total de etapas para la implementación de la plataforma digital.</t>
         </is>
       </c>
       <c r="G32" s="0" t="inlineStr">
         <is>
-          <t>1300</t>
+          <t>100</t>
         </is>
       </c>
       <c r="H32" s="0" t="inlineStr">
@@ -1149,12 +1118,12 @@
       </c>
       <c r="B33" s="0" t="inlineStr">
         <is>
-          <t>4978</t>
+          <t>4977</t>
         </is>
       </c>
       <c r="C33" s="0" t="inlineStr">
         <is>
-          <t>Obtener una flotilla vehicular actualizada con un esquema de contratación diferente a la enajenación</t>
+          <t>Implementar un mecanismo de control eficaz y digital para la carga de combustibles de unidades vehiculares del Poder Ejecutivo del Estado de Querétaro.</t>
         </is>
       </c>
       <c r="D33" s="0" t="inlineStr">
@@ -1170,12 +1139,12 @@
       </c>
       <c r="F33" s="0" t="inlineStr">
         <is>
-          <t>Total de unidades vehículares en operación /Total de unidades vehiculares suceptibles a operar.</t>
+          <t>Unidades vehículares con sistema RFID instalado para la carga de combustible/ total de unidades vehiculares con codigo de barras susceptibles a cambiar de sistema de carga de cpmbustible.</t>
         </is>
       </c>
       <c r="G33" s="0" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="H33" s="0" t="inlineStr">
@@ -1192,12 +1161,12 @@
       </c>
       <c r="B34" s="0" t="inlineStr">
         <is>
-          <t>4979</t>
+          <t>4978</t>
         </is>
       </c>
       <c r="C34" s="0" t="inlineStr">
         <is>
-          <t>Control de vehiculos activos pertenecientes al Poder Ejecutivo del Estado de Querétaro verificados en tiempos establecidos por la Normatividad</t>
+          <t>Obtener una flotilla vehicular actualizada con un esquema de contratación diferente a la enajenación</t>
         </is>
       </c>
       <c r="D34" s="0" t="inlineStr">
@@ -1213,12 +1182,12 @@
       </c>
       <c r="F34" s="0" t="inlineStr">
         <is>
-          <t>Porcentaje de vehiculos activos verificados en tiempos establecidos por la Normatividad</t>
+          <t>Total de unidades vehículares en operación /Total de unidades vehiculares suceptibles a operar.</t>
         </is>
       </c>
       <c r="G34" s="0" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>95</t>
         </is>
       </c>
       <c r="H34" s="0" t="inlineStr">
@@ -1235,12 +1204,12 @@
       </c>
       <c r="B35" s="0" t="inlineStr">
         <is>
-          <t>4980</t>
+          <t>4979</t>
         </is>
       </c>
       <c r="C35" s="0" t="inlineStr">
         <is>
-          <t>Dar seguimiento oportuno y eficaz al servicio de mantenimiento preventivo de las unidades propiedad del Poder Ejecutivo que se encuentran en talleres</t>
+          <t>Control de vehiculos activos pertenecientes al Poder Ejecutivo del Estado de Querétaro verificados en tiempos establecidos por la Normatividad</t>
         </is>
       </c>
       <c r="D35" s="0" t="inlineStr">
@@ -1256,12 +1225,12 @@
       </c>
       <c r="F35" s="0" t="inlineStr">
         <is>
-          <t>Promedio del tiempo en servicio de servicio a unidades del Poder Ejecutivo</t>
+          <t>Porcentaje de vehiculos activos verificados en tiempos establecidos por la Normatividad</t>
         </is>
       </c>
       <c r="G35" s="0" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>90</t>
         </is>
       </c>
       <c r="H35" s="0" t="inlineStr">
@@ -1278,12 +1247,12 @@
       </c>
       <c r="B36" s="0" t="inlineStr">
         <is>
-          <t>5505</t>
+          <t>4980</t>
         </is>
       </c>
       <c r="C36" s="0" t="inlineStr">
         <is>
-          <t>Firma electrónica avanzada</t>
+          <t>Dar seguimiento oportuno y eficaz al servicio de mantenimiento preventivo de las unidades propiedad del Poder Ejecutivo que se encuentran en talleres</t>
         </is>
       </c>
       <c r="D36" s="0" t="inlineStr">
@@ -1299,12 +1268,12 @@
       </c>
       <c r="F36" s="0" t="inlineStr">
         <is>
-          <t>Porcentaje de avance en la habilitación de la Autoridad certificadora respecto del total de etapas programadas</t>
+          <t>Promedio del tiempo en servicio de servicio a unidades del Poder Ejecutivo</t>
         </is>
       </c>
       <c r="G36" s="0" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>50</t>
         </is>
       </c>
       <c r="H36" s="0" t="inlineStr">
@@ -1321,7 +1290,7 @@
       </c>
       <c r="B37" s="0" t="inlineStr">
         <is>
-          <t>5506</t>
+          <t>5505</t>
         </is>
       </c>
       <c r="C37" s="0" t="inlineStr">
@@ -1364,7 +1333,7 @@
       </c>
       <c r="B38" s="0" t="inlineStr">
         <is>
-          <t>5507</t>
+          <t>5506</t>
         </is>
       </c>
       <c r="C38" s="0" t="inlineStr">
@@ -1385,7 +1354,7 @@
       </c>
       <c r="F38" s="0" t="inlineStr">
         <is>
-          <t>Porcentaje de certificaciones emitidas respecto del total identificadas en el personal de  la Secretaría de Finanzas</t>
+          <t>Porcentaje de avance en la habilitación de la Autoridad certificadora respecto del total de etapas programadas</t>
         </is>
       </c>
       <c r="G38" s="0" t="inlineStr">
@@ -1407,7 +1376,7 @@
       </c>
       <c r="B39" s="0" t="inlineStr">
         <is>
-          <t>5508</t>
+          <t>5507</t>
         </is>
       </c>
       <c r="C39" s="0" t="inlineStr">
@@ -1428,7 +1397,7 @@
       </c>
       <c r="F39" s="0" t="inlineStr">
         <is>
-          <t>Sumatoria de aplicaciones de la firma electrónica en los procesos identificados de la Secretaría de Finanzas</t>
+          <t>Porcentaje de certificaciones emitidas respecto del total identificadas en el personal de  la Secretaría de Finanzas</t>
         </is>
       </c>
       <c r="G39" s="0" t="inlineStr">
@@ -1450,12 +1419,12 @@
       </c>
       <c r="B40" s="0" t="inlineStr">
         <is>
-          <t>5509</t>
+          <t>5508</t>
         </is>
       </c>
       <c r="C40" s="0" t="inlineStr">
         <is>
-          <t>Catastro digital</t>
+          <t>Firma electrónica avanzada</t>
         </is>
       </c>
       <c r="D40" s="0" t="inlineStr">
@@ -1471,7 +1440,7 @@
       </c>
       <c r="F40" s="0" t="inlineStr">
         <is>
-          <t>Porcentaje de kilómetros actualizados respecto del total identificados</t>
+          <t>Sumatoria de aplicaciones de la firma electrónica en los procesos identificados de la Secretaría de Finanzas</t>
         </is>
       </c>
       <c r="G40" s="0" t="inlineStr">
@@ -1493,7 +1462,7 @@
       </c>
       <c r="B41" s="0" t="inlineStr">
         <is>
-          <t>5510</t>
+          <t>5509</t>
         </is>
       </c>
       <c r="C41" s="0" t="inlineStr">
@@ -1514,7 +1483,7 @@
       </c>
       <c r="F41" s="0" t="inlineStr">
         <is>
-          <t>Sumatoria de Consultas a la página web de Catastro </t>
+          <t>Porcentaje de kilómetros actualizados respecto del total identificados</t>
         </is>
       </c>
       <c r="G41" s="0" t="inlineStr">
@@ -1536,7 +1505,7 @@
       </c>
       <c r="B42" s="0" t="inlineStr">
         <is>
-          <t>5511</t>
+          <t>5510</t>
         </is>
       </c>
       <c r="C42" s="0" t="inlineStr">
@@ -1579,12 +1548,12 @@
       </c>
       <c r="B43" s="0" t="inlineStr">
         <is>
-          <t>5512</t>
+          <t>5511</t>
         </is>
       </c>
       <c r="C43" s="0" t="inlineStr">
         <is>
-          <t>Plan Querétaro Digital</t>
+          <t>Catastro digital</t>
         </is>
       </c>
       <c r="D43" s="0" t="inlineStr">
@@ -1600,7 +1569,7 @@
       </c>
       <c r="F43" s="0" t="inlineStr">
         <is>
-          <t>Porcentaje de Proyectos del Plan Querétaro Digital liberados con respecto al total de Proyectos</t>
+          <t>Sumatoria de Consultas a la página web de Catastro </t>
         </is>
       </c>
       <c r="G43" s="0" t="inlineStr">
@@ -1622,7 +1591,7 @@
       </c>
       <c r="B44" s="0" t="inlineStr">
         <is>
-          <t>5513</t>
+          <t>5512</t>
         </is>
       </c>
       <c r="C44" s="0" t="inlineStr">
@@ -1643,7 +1612,7 @@
       </c>
       <c r="F44" s="0" t="inlineStr">
         <is>
-          <t>Porcentaje de documentos normativos de TI modificados o creados respecto del total identificados que requieren actualización</t>
+          <t>Porcentaje de Proyectos del Plan Querétaro Digital liberados con respecto al total de Proyectos</t>
         </is>
       </c>
       <c r="G44" s="0" t="inlineStr">
@@ -1665,12 +1634,12 @@
       </c>
       <c r="B45" s="0" t="inlineStr">
         <is>
-          <t>5514</t>
+          <t>5513</t>
         </is>
       </c>
       <c r="C45" s="0" t="inlineStr">
         <is>
-          <t>Sistema Financiero</t>
+          <t>Plan Querétaro Digital</t>
         </is>
       </c>
       <c r="D45" s="0" t="inlineStr">
@@ -1686,7 +1655,7 @@
       </c>
       <c r="F45" s="0" t="inlineStr">
         <is>
-          <t>Porcentaje de módulos del nuevo sistema financiero  implementados hasta su fase de pruebas respecto a los módulos por implementar en 2022</t>
+          <t>Porcentaje de documentos normativos de TI modificados o creados respecto del total identificados que requieren actualización</t>
         </is>
       </c>
       <c r="G45" s="0" t="inlineStr">
@@ -1708,7 +1677,7 @@
       </c>
       <c r="B46" s="0" t="inlineStr">
         <is>
-          <t>5515</t>
+          <t>5514</t>
         </is>
       </c>
       <c r="C46" s="0" t="inlineStr">
@@ -1729,7 +1698,7 @@
       </c>
       <c r="F46" s="0" t="inlineStr">
         <is>
-          <t>Porcentaje de módulos del nuevo sistema financiero  implementados hasta su fase de pruebas respecto a los módulos por implementar en 2023</t>
+          <t>Porcentaje de módulos del nuevo sistema financiero  implementados hasta su fase de pruebas respecto a los módulos por implementar en 2022</t>
         </is>
       </c>
       <c r="G46" s="0" t="inlineStr">
@@ -1751,7 +1720,7 @@
       </c>
       <c r="B47" s="0" t="inlineStr">
         <is>
-          <t>5516</t>
+          <t>5515</t>
         </is>
       </c>
       <c r="C47" s="0" t="inlineStr">
@@ -1772,7 +1741,7 @@
       </c>
       <c r="F47" s="0" t="inlineStr">
         <is>
-          <t>Porcentaje de módulos del nuevo sistema financiero  implementados hasta su fase de pruebas respecto a los módulos por implementar en 2024</t>
+          <t>Porcentaje de módulos del nuevo sistema financiero  implementados hasta su fase de pruebas respecto a los módulos por implementar en 2023</t>
         </is>
       </c>
       <c r="G47" s="0" t="inlineStr">
@@ -1794,7 +1763,7 @@
       </c>
       <c r="B48" s="0" t="inlineStr">
         <is>
-          <t>5517</t>
+          <t>5516</t>
         </is>
       </c>
       <c r="C48" s="0" t="inlineStr">
@@ -1815,7 +1784,7 @@
       </c>
       <c r="F48" s="0" t="inlineStr">
         <is>
-          <t>Porcentaje de módulos del nuevo sistema financiero  implementados hasta su fase de pruebas respecto a los módulos por implementar en 2025</t>
+          <t>Porcentaje de módulos del nuevo sistema financiero  implementados hasta su fase de pruebas respecto a los módulos por implementar en 2024</t>
         </is>
       </c>
       <c r="G48" s="0" t="inlineStr">
@@ -1837,12 +1806,12 @@
       </c>
       <c r="B49" s="0" t="inlineStr">
         <is>
-          <t>5518</t>
+          <t>5517</t>
         </is>
       </c>
       <c r="C49" s="0" t="inlineStr">
         <is>
-          <t> Disciplina Financiera Estatal</t>
+          <t>Sistema Financiero</t>
         </is>
       </c>
       <c r="D49" s="0" t="inlineStr">
@@ -1858,7 +1827,7 @@
       </c>
       <c r="F49" s="0" t="inlineStr">
         <is>
-          <t>Porcentaje de etapas realizadas en la elaboración y aprobación de la ley respecto del total de etapas proyectadas</t>
+          <t>Porcentaje de módulos del nuevo sistema financiero  implementados hasta su fase de pruebas respecto a los módulos por implementar en 2025</t>
         </is>
       </c>
       <c r="G49" s="0" t="inlineStr">
@@ -1880,12 +1849,12 @@
       </c>
       <c r="B50" s="0" t="inlineStr">
         <is>
-          <t>5519</t>
+          <t>5518</t>
         </is>
       </c>
       <c r="C50" s="0" t="inlineStr">
         <is>
-          <t>Modelo Financiero Plurianual</t>
+          <t> Disciplina Financiera Estatal</t>
         </is>
       </c>
       <c r="D50" s="0" t="inlineStr">
@@ -1901,7 +1870,7 @@
       </c>
       <c r="F50" s="0" t="inlineStr">
         <is>
-          <t>Porcentaje del esquema financiero a aplicar en proyectos plurianuales respecto del total por autorizar</t>
+          <t>Porcentaje de etapas realizadas en la elaboración y aprobación de la ley respecto del total de etapas proyectadas</t>
         </is>
       </c>
       <c r="G50" s="0" t="inlineStr">
@@ -1923,7 +1892,7 @@
       </c>
       <c r="B51" s="0" t="inlineStr">
         <is>
-          <t>5520</t>
+          <t>5519</t>
         </is>
       </c>
       <c r="C51" s="0" t="inlineStr">
@@ -1966,7 +1935,7 @@
       </c>
       <c r="B52" s="0" t="inlineStr">
         <is>
-          <t>5521</t>
+          <t>5520</t>
         </is>
       </c>
       <c r="C52" s="0" t="inlineStr">
@@ -2009,12 +1978,12 @@
       </c>
       <c r="B53" s="0" t="inlineStr">
         <is>
-          <t>5522</t>
+          <t>5521</t>
         </is>
       </c>
       <c r="C53" s="0" t="inlineStr">
         <is>
-          <t>Eficiencia y manejo de recursos públicos</t>
+          <t>Modelo Financiero Plurianual</t>
         </is>
       </c>
       <c r="D53" s="0" t="inlineStr">
@@ -2030,7 +1999,7 @@
       </c>
       <c r="F53" s="0" t="inlineStr">
         <is>
-          <t>Mantener la Calificación crediticia de la Entidad</t>
+          <t>Porcentaje del esquema financiero a aplicar en proyectos plurianuales respecto del total por autorizar</t>
         </is>
       </c>
       <c r="G53" s="0" t="inlineStr">
@@ -2052,7 +2021,7 @@
       </c>
       <c r="B54" s="0" t="inlineStr">
         <is>
-          <t>5523</t>
+          <t>5522</t>
         </is>
       </c>
       <c r="C54" s="0" t="inlineStr">
@@ -2095,7 +2064,7 @@
       </c>
       <c r="B55" s="0" t="inlineStr">
         <is>
-          <t>5524</t>
+          <t>5523</t>
         </is>
       </c>
       <c r="C55" s="0" t="inlineStr">
@@ -2138,7 +2107,7 @@
       </c>
       <c r="B56" s="0" t="inlineStr">
         <is>
-          <t>5525</t>
+          <t>5524</t>
         </is>
       </c>
       <c r="C56" s="0" t="inlineStr">
@@ -2181,7 +2150,7 @@
       </c>
       <c r="B57" s="0" t="inlineStr">
         <is>
-          <t>5526</t>
+          <t>5525</t>
         </is>
       </c>
       <c r="C57" s="0" t="inlineStr">
@@ -2224,12 +2193,12 @@
       </c>
       <c r="B58" s="0" t="inlineStr">
         <is>
-          <t>5527</t>
+          <t>5526</t>
         </is>
       </c>
       <c r="C58" s="0" t="inlineStr">
         <is>
-          <t>Subasta pública electrónica</t>
+          <t>Eficiencia y manejo de recursos públicos</t>
         </is>
       </c>
       <c r="D58" s="0" t="inlineStr">
@@ -2245,7 +2214,7 @@
       </c>
       <c r="F58" s="0" t="inlineStr">
         <is>
-          <t>Monto de los recursos subastados a través del Portal web público</t>
+          <t>Mantener la Calificación crediticia de la Entidad</t>
         </is>
       </c>
       <c r="G58" s="0" t="inlineStr">
@@ -2267,7 +2236,7 @@
       </c>
       <c r="B59" s="0" t="inlineStr">
         <is>
-          <t>5528</t>
+          <t>5527</t>
         </is>
       </c>
       <c r="C59" s="0" t="inlineStr">
@@ -2310,7 +2279,7 @@
       </c>
       <c r="B60" s="0" t="inlineStr">
         <is>
-          <t>5529</t>
+          <t>5528</t>
         </is>
       </c>
       <c r="C60" s="0" t="inlineStr">
@@ -2353,7 +2322,7 @@
       </c>
       <c r="B61" s="0" t="inlineStr">
         <is>
-          <t>5530</t>
+          <t>5529</t>
         </is>
       </c>
       <c r="C61" s="0" t="inlineStr">
@@ -2396,12 +2365,12 @@
       </c>
       <c r="B62" s="0" t="inlineStr">
         <is>
-          <t>5531</t>
+          <t>5530</t>
         </is>
       </c>
       <c r="C62" s="0" t="inlineStr">
         <is>
-          <t>Modelo Tributario Estatal</t>
+          <t>Subasta pública electrónica</t>
         </is>
       </c>
       <c r="D62" s="0" t="inlineStr">
@@ -2417,7 +2386,7 @@
       </c>
       <c r="F62" s="0" t="inlineStr">
         <is>
-          <t>Monto acumulado de contribuciones estatales</t>
+          <t>Monto de los recursos subastados a través del Portal web público</t>
         </is>
       </c>
       <c r="G62" s="0" t="inlineStr">
@@ -2439,7 +2408,7 @@
       </c>
       <c r="B63" s="0" t="inlineStr">
         <is>
-          <t>5532</t>
+          <t>5531</t>
         </is>
       </c>
       <c r="C63" s="0" t="inlineStr">
@@ -2460,7 +2429,7 @@
       </c>
       <c r="F63" s="0" t="inlineStr">
         <is>
-          <t>Porcentaje de trámites agilizados con respecto al total de trámites detectados </t>
+          <t>Monto acumulado de contribuciones estatales</t>
         </is>
       </c>
       <c r="G63" s="0" t="inlineStr">
@@ -2482,12 +2451,12 @@
       </c>
       <c r="B64" s="0" t="inlineStr">
         <is>
-          <t>5533</t>
+          <t>5532</t>
         </is>
       </c>
       <c r="C64" s="0" t="inlineStr">
         <is>
-          <t>Fortalecimiento de los ingresos propios</t>
+          <t>Modelo Tributario Estatal</t>
         </is>
       </c>
       <c r="D64" s="0" t="inlineStr">
@@ -2503,7 +2472,7 @@
       </c>
       <c r="F64" s="0" t="inlineStr">
         <is>
-          <t>Porcentaje de ingresos propios recaudados respecto a los ingresos totales recaudados</t>
+          <t>Porcentaje de trámites agilizados con respecto al total de trámites detectados </t>
         </is>
       </c>
       <c r="G64" s="0" t="inlineStr">
@@ -2525,7 +2494,7 @@
       </c>
       <c r="B65" s="0" t="inlineStr">
         <is>
-          <t>5534</t>
+          <t>5533</t>
         </is>
       </c>
       <c r="C65" s="0" t="inlineStr">
@@ -2568,7 +2537,7 @@
       </c>
       <c r="B66" s="0" t="inlineStr">
         <is>
-          <t>5535</t>
+          <t>5534</t>
         </is>
       </c>
       <c r="C66" s="0" t="inlineStr">
@@ -2611,7 +2580,7 @@
       </c>
       <c r="B67" s="0" t="inlineStr">
         <is>
-          <t>5536</t>
+          <t>5535</t>
         </is>
       </c>
       <c r="C67" s="0" t="inlineStr">
@@ -2654,7 +2623,7 @@
       </c>
       <c r="B68" s="0" t="inlineStr">
         <is>
-          <t>5537</t>
+          <t>5536</t>
         </is>
       </c>
       <c r="C68" s="0" t="inlineStr">
@@ -2697,7 +2666,7 @@
       </c>
       <c r="B69" s="0" t="inlineStr">
         <is>
-          <t>5538</t>
+          <t>5537</t>
         </is>
       </c>
       <c r="C69" s="0" t="inlineStr">
@@ -2718,7 +2687,7 @@
       </c>
       <c r="F69" s="0" t="inlineStr">
         <is>
-          <t>Porcentaje de Ingresos Propios recibidos a través de medios digitales respecto de los Ingresos Totales</t>
+          <t>Porcentaje de ingresos propios recaudados respecto a los ingresos totales recaudados</t>
         </is>
       </c>
       <c r="G69" s="0" t="inlineStr">
@@ -2740,7 +2709,7 @@
       </c>
       <c r="B70" s="0" t="inlineStr">
         <is>
-          <t>5539</t>
+          <t>5538</t>
         </is>
       </c>
       <c r="C70" s="0" t="inlineStr">
@@ -2783,7 +2752,7 @@
       </c>
       <c r="B71" s="0" t="inlineStr">
         <is>
-          <t>5540</t>
+          <t>5539</t>
         </is>
       </c>
       <c r="C71" s="0" t="inlineStr">
@@ -2826,7 +2795,7 @@
       </c>
       <c r="B72" s="0" t="inlineStr">
         <is>
-          <t>5541</t>
+          <t>5540</t>
         </is>
       </c>
       <c r="C72" s="0" t="inlineStr">
@@ -2847,7 +2816,7 @@
       </c>
       <c r="F72" s="0" t="inlineStr">
         <is>
-          <t>Porcentaje de Impuestos respecto del total de Ingresos Propios</t>
+          <t>Porcentaje de Ingresos Propios recibidos a través de medios digitales respecto de los Ingresos Totales</t>
         </is>
       </c>
       <c r="G72" s="0" t="inlineStr">
@@ -2869,7 +2838,7 @@
       </c>
       <c r="B73" s="0" t="inlineStr">
         <is>
-          <t>5542</t>
+          <t>5541</t>
         </is>
       </c>
       <c r="C73" s="0" t="inlineStr">
@@ -2912,12 +2881,12 @@
       </c>
       <c r="B74" s="0" t="inlineStr">
         <is>
-          <t>5543</t>
+          <t>5542</t>
         </is>
       </c>
       <c r="C74" s="0" t="inlineStr">
         <is>
-          <t>Evaluación del Desempeño eficaz</t>
+          <t>Fortalecimiento de los ingresos propios</t>
         </is>
       </c>
       <c r="D74" s="0" t="inlineStr">
@@ -2933,12 +2902,12 @@
       </c>
       <c r="F74" s="0" t="inlineStr">
         <is>
-          <t>Calificación promedio que otorgan las y los Enlaces a los procesos y formatos elaborados por la UESED</t>
+          <t>Porcentaje de Impuestos respecto del total de Ingresos Propios</t>
         </is>
       </c>
       <c r="G74" s="0" t="inlineStr">
         <is>
-          <t>8.5</t>
+          <t>100</t>
         </is>
       </c>
       <c r="H74" s="0" t="inlineStr">
@@ -2955,7 +2924,7 @@
       </c>
       <c r="B75" s="0" t="inlineStr">
         <is>
-          <t>5544</t>
+          <t>5543</t>
         </is>
       </c>
       <c r="C75" s="0" t="inlineStr">
@@ -2976,7 +2945,7 @@
       </c>
       <c r="F75" s="0" t="inlineStr">
         <is>
-          <t>Calificación promedio que otorgan las y los participantes en las encuestas de satisfacción a las capacitaciones, cursos y talleres realizados en materia de GpR, PbR y SED por la UESED</t>
+          <t>Calificación promedio que otorgan las y los Enlaces a los procesos y formatos elaborados por la UESED</t>
         </is>
       </c>
       <c r="G75" s="0" t="inlineStr">
@@ -2998,7 +2967,7 @@
       </c>
       <c r="B76" s="0" t="inlineStr">
         <is>
-          <t>5545</t>
+          <t>5544</t>
         </is>
       </c>
       <c r="C76" s="0" t="inlineStr">
@@ -3019,12 +2988,12 @@
       </c>
       <c r="F76" s="0" t="inlineStr">
         <is>
-          <t>Porcentaje de indicadores de desempeño revisados con respecto al total de indicadores de desempeño de PbR</t>
+          <t>Calificación promedio que otorgan las y los participantes en las encuestas de satisfacción a las capacitaciones, cursos y talleres realizados en materia de GpR, PbR y SED por la UESED</t>
         </is>
       </c>
       <c r="G76" s="0" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>8.5</t>
         </is>
       </c>
       <c r="H76" s="0" t="inlineStr">
@@ -3041,12 +3010,12 @@
       </c>
       <c r="B77" s="0" t="inlineStr">
         <is>
-          <t>5570</t>
+          <t>5545</t>
         </is>
       </c>
       <c r="C77" s="0" t="inlineStr">
         <is>
-          <t>Elaborar un nuevo instrumento jurídico que siente las bases para la aplicación de mejora regulatoria y herramientas tecnológicas</t>
+          <t>Evaluación del Desempeño eficaz</t>
         </is>
       </c>
       <c r="D77" s="0" t="inlineStr">
@@ -3062,7 +3031,7 @@
       </c>
       <c r="F77" s="0" t="inlineStr">
         <is>
-          <t>Subir puntuación en el Subindicador de políticas del Indicador Nacional de Mejora Regulatoria al 100, considerando la calificación actual es de 87.</t>
+          <t>Porcentaje de indicadores de desempeño revisados con respecto al total de indicadores de desempeño de PbR</t>
         </is>
       </c>
       <c r="G77" s="0" t="inlineStr">
@@ -3084,12 +3053,12 @@
       </c>
       <c r="B78" s="0" t="inlineStr">
         <is>
-          <t>5571</t>
+          <t>5570</t>
         </is>
       </c>
       <c r="C78" s="0" t="inlineStr">
         <is>
-          <t>Elaborar los instrumentos jurídicos que sienten las bases para la aplicación de mejora regulatoria y herramientas tecnológicas de conformidad con los Lineamientos emitidos por el Consejo Nacional de Mejora Regulatoria</t>
+          <t>Elaborar un nuevo instrumento jurídico que siente las bases para la aplicación de mejora regulatoria y herramientas tecnológicas</t>
         </is>
       </c>
       <c r="D78" s="0" t="inlineStr">
@@ -3105,7 +3074,7 @@
       </c>
       <c r="F78" s="0" t="inlineStr">
         <is>
-          <t>Total de lineamientos publicados/Total de lineamientos elaborados</t>
+          <t>Subir puntuación en el Subindicador de políticas del Indicador Nacional de Mejora Regulatoria al 100, considerando la calificación actual es de 87.</t>
         </is>
       </c>
       <c r="G78" s="0" t="inlineStr">
@@ -3127,75 +3096,75 @@
       </c>
       <c r="B79" s="0" t="inlineStr">
         <is>
+          <t>5571</t>
+        </is>
+      </c>
+      <c r="C79" s="0" t="inlineStr">
+        <is>
+          <t>Elaborar los instrumentos jurídicos que sienten las bases para la aplicación de mejora regulatoria y herramientas tecnológicas de conformidad con los Lineamientos emitidos por el Consejo Nacional de Mejora Regulatoria</t>
+        </is>
+      </c>
+      <c r="D79" s="0" t="inlineStr">
+        <is>
+          <t>Cultura</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="inlineStr">
+        <is>
+          <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
+</t>
+        </is>
+      </c>
+      <c r="F79" s="0" t="inlineStr">
+        <is>
+          <t>Total de lineamientos publicados/Total de lineamientos elaborados</t>
+        </is>
+      </c>
+      <c r="G79" s="0" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="H79" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de Avance</t>
+        </is>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="0" t="inlineStr">
+        <is>
+          <t>Fin</t>
+        </is>
+      </c>
+      <c r="B80" s="0" t="inlineStr">
+        <is>
           <t>5572</t>
         </is>
       </c>
-      <c r="C79" s="0" t="inlineStr">
+      <c r="C80" s="0" t="inlineStr">
         <is>
           <t>Implementar en una plataforma el Sistema de Gobernanza Regulatoria (Agenda Regulatoria, SIMPLIFICA, Programas de Mejora Regulatoria y el Análisis de Impacto Regulatorio) para que las herramientas interoperen entre sí y se de cumplimiento al ciclo regulatorio.</t>
         </is>
       </c>
-      <c r="D79" s="0" t="inlineStr">
-        <is>
-          <t>Cultura</t>
-        </is>
-      </c>
-      <c r="E79" s="2" t="inlineStr">
-        <is>
-          <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
-</t>
-        </is>
-      </c>
-      <c r="F79" s="2" t="inlineStr">
+      <c r="D80" s="0" t="inlineStr">
+        <is>
+          <t>Cultura</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="inlineStr">
+        <is>
+          <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
+</t>
+        </is>
+      </c>
+      <c r="F80" s="2" t="inlineStr">
         <is>
           <t>1. Regulaciones publicadas/Propuestas regulatorias agendadas.
 2. Porcentaje de reducción del costo de trámites y servicios/Porcentaje de reducción del costo de trámites y servicios programado.
 3. Regulaciones dictaminadas/Regulaciones publicadas.</t>
         </is>
       </c>
-      <c r="G79" s="0" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="H79" s="0" t="inlineStr">
-        <is>
-          <t>Porcentaje de Avance</t>
-        </is>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
-      <c r="A80" s="0" t="inlineStr">
-        <is>
-          <t>Fin</t>
-        </is>
-      </c>
-      <c r="B80" s="0" t="inlineStr">
-        <is>
-          <t>5573</t>
-        </is>
-      </c>
-      <c r="C80" s="0" t="inlineStr">
-        <is>
-          <t>Implementar el Análisis de Impacto Regulatorio de manera sistemática en todas las dependencias y entidades del Poder Ejecutivo del Estado de Querétaro</t>
-        </is>
-      </c>
-      <c r="D80" s="0" t="inlineStr">
-        <is>
-          <t>Cultura</t>
-        </is>
-      </c>
-      <c r="E80" s="2" t="inlineStr">
-        <is>
-          <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
-</t>
-        </is>
-      </c>
-      <c r="F80" s="0" t="inlineStr">
-        <is>
-          <t>Total de anteproyectos con costos analizadas /Total de anteproyectos recibidos</t>
-        </is>
-      </c>
       <c r="G80" s="0" t="inlineStr">
         <is>
           <t>100</t>
@@ -3215,12 +3184,12 @@
       </c>
       <c r="B81" s="0" t="inlineStr">
         <is>
-          <t>5574</t>
+          <t>5573</t>
         </is>
       </c>
       <c r="C81" s="0" t="inlineStr">
         <is>
-          <t>Implementar una Agenda Regulatoria cien por ciento digital y alineada al nuevo marco normativo estatal</t>
+          <t>Implementar el Análisis de Impacto Regulatorio de manera sistemática en todas las dependencias y entidades del Poder Ejecutivo del Estado de Querétaro</t>
         </is>
       </c>
       <c r="D81" s="0" t="inlineStr">
@@ -3236,7 +3205,7 @@
       </c>
       <c r="F81" s="0" t="inlineStr">
         <is>
-          <t>Total de propuestas regulatorias inscritas en Agenda Regulatoria/ Total de excepciones de Agenda Regulatoria solicitadas</t>
+          <t>Total de anteproyectos con costos analizadas /Total de anteproyectos recibidos</t>
         </is>
       </c>
       <c r="G81" s="0" t="inlineStr">
@@ -3258,12 +3227,12 @@
       </c>
       <c r="B82" s="0" t="inlineStr">
         <is>
-          <t>5575</t>
+          <t>5574</t>
         </is>
       </c>
       <c r="C82" s="0" t="inlineStr">
         <is>
-          <t>Difundir las acciones y herramientas de Mejora Regulatoria y sus canales de participación ciudadana</t>
+          <t>Implementar una Agenda Regulatoria cien por ciento digital y alineada al nuevo marco normativo estatal</t>
         </is>
       </c>
       <c r="D82" s="0" t="inlineStr">
@@ -3279,7 +3248,7 @@
       </c>
       <c r="F82" s="0" t="inlineStr">
         <is>
-          <t>Total de eventos realizados/Eventos programados</t>
+          <t>Total de propuestas regulatorias inscritas en Agenda Regulatoria/ Total de excepciones de Agenda Regulatoria solicitadas</t>
         </is>
       </c>
       <c r="G82" s="0" t="inlineStr">
@@ -3301,12 +3270,12 @@
       </c>
       <c r="B83" s="0" t="inlineStr">
         <is>
-          <t>5576</t>
+          <t>5575</t>
         </is>
       </c>
       <c r="C83" s="0" t="inlineStr">
         <is>
-          <t>Revisión del marco normativo que sustenta los trámites y servicios que presta el Poder Ejecutivo del Estado de Querétaro</t>
+          <t>Difundir las acciones y herramientas de Mejora Regulatoria y sus canales de participación ciudadana</t>
         </is>
       </c>
       <c r="D83" s="0" t="inlineStr">
@@ -3322,7 +3291,7 @@
       </c>
       <c r="F83" s="0" t="inlineStr">
         <is>
-          <t>Total de diagnósticos elaborados/ Total de diagnósticos programados</t>
+          <t>Total de eventos realizados/Eventos programados</t>
         </is>
       </c>
       <c r="G83" s="0" t="inlineStr">
@@ -3344,12 +3313,12 @@
       </c>
       <c r="B84" s="0" t="inlineStr">
         <is>
-          <t>5577</t>
+          <t>5576</t>
         </is>
       </c>
       <c r="C84" s="0" t="inlineStr">
         <is>
-          <t>Coordinar con los Sujetos Obligados receptores de las protestas, la atención y seguimiento de cada una de ellas.</t>
+          <t>Revisión del marco normativo que sustenta los trámites y servicios que presta el Poder Ejecutivo del Estado de Querétaro</t>
         </is>
       </c>
       <c r="D84" s="0" t="inlineStr">
@@ -3365,7 +3334,7 @@
       </c>
       <c r="F84" s="0" t="inlineStr">
         <is>
-          <t>Total de trámites actualizados/Total de trámites inscritos</t>
+          <t>Total de diagnósticos elaborados/ Total de diagnósticos programados</t>
         </is>
       </c>
       <c r="G84" s="0" t="inlineStr">
@@ -3387,12 +3356,12 @@
       </c>
       <c r="B85" s="0" t="inlineStr">
         <is>
-          <t>5578</t>
+          <t>5577</t>
         </is>
       </c>
       <c r="C85" s="0" t="inlineStr">
         <is>
-          <t>Adecuar y actualizar la plataforma del Padrón de Inspectores a las necesidades vigentes.</t>
+          <t>Coordinar con los Sujetos Obligados receptores de las protestas, la atención y seguimiento de cada una de ellas.</t>
         </is>
       </c>
       <c r="D85" s="0" t="inlineStr">
@@ -3408,7 +3377,7 @@
       </c>
       <c r="F85" s="0" t="inlineStr">
         <is>
-          <t>Total de Campos actualizados/ Total de campos solicitados</t>
+          <t>Total de trámites actualizados/Total de trámites inscritos</t>
         </is>
       </c>
       <c r="G85" s="0" t="inlineStr">
@@ -3430,12 +3399,12 @@
       </c>
       <c r="B86" s="0" t="inlineStr">
         <is>
-          <t>5579</t>
+          <t>5578</t>
         </is>
       </c>
       <c r="C86" s="0" t="inlineStr">
         <is>
-          <t>Adecuar y actualizar la plataforma del Registro Estatal de Trámtes y Servicios a las necesidades vigentes.</t>
+          <t>Adecuar y actualizar la plataforma del Padrón de Inspectores a las necesidades vigentes.</t>
         </is>
       </c>
       <c r="D86" s="0" t="inlineStr">
@@ -3473,12 +3442,12 @@
       </c>
       <c r="B87" s="0" t="inlineStr">
         <is>
-          <t>5580</t>
+          <t>5579</t>
         </is>
       </c>
       <c r="C87" s="0" t="inlineStr">
         <is>
-          <t>Sistematizar y digitalizar una herramienta para la administración de la información de los Responsables Oficiales y Sujetos Obligados</t>
+          <t>Adecuar y actualizar la plataforma del Registro Estatal de Trámtes y Servicios a las necesidades vigentes.</t>
         </is>
       </c>
       <c r="D87" s="0" t="inlineStr">
@@ -3494,7 +3463,7 @@
       </c>
       <c r="F87" s="0" t="inlineStr">
         <is>
-          <t>Total de Responsables Oficiales registrados/ Total de Responsables oficiales</t>
+          <t>Total de Campos actualizados/ Total de campos solicitados</t>
         </is>
       </c>
       <c r="G87" s="0" t="inlineStr">
@@ -3516,12 +3485,12 @@
       </c>
       <c r="B88" s="0" t="inlineStr">
         <is>
-          <t>5581</t>
+          <t>5580</t>
         </is>
       </c>
       <c r="C88" s="0" t="inlineStr">
         <is>
-          <t>Generar un programa de capacitación en materia de Mejora Regulatoria</t>
+          <t>Sistematizar y digitalizar una herramienta para la administración de la información de los Responsables Oficiales y Sujetos Obligados</t>
         </is>
       </c>
       <c r="D88" s="0" t="inlineStr">
@@ -3537,7 +3506,7 @@
       </c>
       <c r="F88" s="0" t="inlineStr">
         <is>
-          <t>Total de Responsables Oficiales capacitados/ total de Responsables Oficiales existentes</t>
+          <t>Total de Responsables Oficiales registrados/ Total de Responsables oficiales</t>
         </is>
       </c>
       <c r="G88" s="0" t="inlineStr">
@@ -3559,12 +3528,12 @@
       </c>
       <c r="B89" s="0" t="inlineStr">
         <is>
-          <t>5582</t>
+          <t>5581</t>
         </is>
       </c>
       <c r="C89" s="0" t="inlineStr">
         <is>
-          <t>Permitir que los trámites estatales de más impacto para iniciar una inversión estén disponibles de manera simplificada y digitalizada en un solo punto, esto gracias a la simplificación y digitalización de los trámites de: compra y venta de bienes inmuebles, traslación de dominio, construcción, inicio de operaciones, principalmente. </t>
+          <t>Generar un programa de capacitación en materia de Mejora Regulatoria</t>
         </is>
       </c>
       <c r="D89" s="0" t="inlineStr">
@@ -3580,7 +3549,7 @@
       </c>
       <c r="F89" s="0" t="inlineStr">
         <is>
-          <t>Trámites digitalizados / Trámites identificados en el diagnóstico de la OCDE</t>
+          <t>Total de Responsables Oficiales capacitados/ total de Responsables Oficiales existentes</t>
         </is>
       </c>
       <c r="G89" s="0" t="inlineStr">
@@ -3602,36 +3571,79 @@
       </c>
       <c r="B90" s="0" t="inlineStr">
         <is>
+          <t>5582</t>
+        </is>
+      </c>
+      <c r="C90" s="0" t="inlineStr">
+        <is>
+          <t>Permitir que los trámites estatales de más impacto para iniciar una inversión estén disponibles de manera simplificada y digitalizada en un solo punto, esto gracias a la simplificación y digitalización de los trámites de: compra y venta de bienes inmuebles, traslación de dominio, construcción, inicio de operaciones, principalmente. </t>
+        </is>
+      </c>
+      <c r="D90" s="0" t="inlineStr">
+        <is>
+          <t>Cultura</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="inlineStr">
+        <is>
+          <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
+</t>
+        </is>
+      </c>
+      <c r="F90" s="0" t="inlineStr">
+        <is>
+          <t>Trámites digitalizados / Trámites identificados en el diagnóstico de la OCDE</t>
+        </is>
+      </c>
+      <c r="G90" s="0" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="H90" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de Avance</t>
+        </is>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="0" t="inlineStr">
+        <is>
+          <t>Fin</t>
+        </is>
+      </c>
+      <c r="B91" s="0" t="inlineStr">
+        <is>
           <t>6001</t>
         </is>
       </c>
-      <c r="C90" s="0" t="inlineStr">
+      <c r="C91" s="0" t="inlineStr">
         <is>
           <t>Definir estrategia para realizar la entrega de apoyos escolares al año.</t>
         </is>
       </c>
-      <c r="D90" s="0" t="inlineStr">
-        <is>
-          <t>Cultura</t>
-        </is>
-      </c>
-      <c r="E90" s="2" t="inlineStr">
-        <is>
-          <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
-</t>
-        </is>
-      </c>
-      <c r="F90" s="0" t="inlineStr">
+      <c r="D91" s="0" t="inlineStr">
+        <is>
+          <t>Cultura</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="inlineStr">
+        <is>
+          <t>6.2.2.1 Consolidar los Sistemas Contables y Financieros.
+</t>
+        </is>
+      </c>
+      <c r="F91" s="0" t="inlineStr">
         <is>
           <t>Entrega de utiles escolares</t>
         </is>
       </c>
-      <c r="G90" s="0" t="inlineStr">
+      <c r="G91" s="0" t="inlineStr">
         <is>
           <t>10000</t>
         </is>
       </c>
-      <c r="H90" s="0" t="inlineStr">
+      <c r="H91" s="0" t="inlineStr">
         <is>
           <t>Acciones</t>
         </is>

--- a/public/reportes/POAS.xlsx
+++ b/public/reportes/POAS.xlsx
@@ -141,15 +141,10 @@
         </is>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:1">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Estrategia de Gobierno</t>
-        </is>
-      </c>
-      <c r="B7" s="0" t="inlineStr">
-        <is>
-          <t>Secretaría de Planeación y Participación Ciudadana</t>
+          <t>Estrategia</t>
         </is>
       </c>
     </row>
@@ -168,7 +163,7 @@
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>06-20-2022 06:28:29 pm</t>
+          <t>06-20-2022 06:36:01 pm</t>
         </is>
       </c>
       <c r="E9" s="3" t="inlineStr">

--- a/public/reportes/POAS.xlsx
+++ b/public/reportes/POAS.xlsx
@@ -14,7 +14,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -25,6 +25,11 @@
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <i/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <sz val="20"/>
@@ -61,10 +66,13 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -83,7 +91,7 @@
       </c>
       <c r="B1" s="0" t="inlineStr">
         <is>
-          <t>Aeropuerto Internacional de Querétaro</t>
+          <t>Secretaría de Finanzas</t>
         </is>
       </c>
     </row>
@@ -95,14 +103,14 @@
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
-          <t>Desarrollo Aeroportuario</t>
+          <t>Energía</t>
         </is>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Clasificación Programatica</t>
+          <t>Clasificación Programatica (Grupo de Gasto)</t>
         </is>
       </c>
       <c r="B3" s="0" t="inlineStr">
@@ -114,131 +122,176 @@
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Gasto de Orden</t>
+          <t>Clasificación Programatica (Grupo de Programa)</t>
         </is>
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Desempeño de las Funciones</t>
         </is>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Eje</t>
+          <t>Clasificación Programatica (Modalidad)</t>
         </is>
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>Economía Dinámica y Prosperidad Familiar</t>
+          <t>P - Planeación, formulación, implementación, seguimiento y evaluación de políticas públicas</t>
         </is>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="inlineStr">
         <is>
+          <t>Gasto de orden</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Eje</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>Gobierno Ciudadano
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
           <t>Objetivo de Gobierno</t>
         </is>
       </c>
-      <c r="B6" s="0" t="inlineStr">
-        <is>
-          <t>Secretaría de Desarrollo Agropecuario</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="1" t="inlineStr">
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de Planeación y Participación Ciudadana</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="1" t="inlineStr">
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1" t="inlineStr">
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>Fecha</t>
         </is>
       </c>
-      <c r="B9" s="0" t="inlineStr">
-        <is>
-          <t>07-04-2022 11:17:07 pm</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>07-05-2022 06:02:39 pm</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="inlineStr">
         <is>
           <t>POA (SF)</t>
         </is>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1" t="inlineStr">
+    <row r="14" spans="1:8">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>Nivel</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr">
+      <c r="B14" s="1" t="inlineStr">
+        <is>
+          <t>Resumen Narrativo</t>
+        </is>
+      </c>
+      <c r="C14" s="1" t="inlineStr">
         <is>
           <t>Clave</t>
         </is>
       </c>
-      <c r="C12" s="1" t="inlineStr">
-        <is>
-          <t>Resumen Narrativo</t>
-        </is>
-      </c>
-      <c r="D12" s="1" t="inlineStr">
+      <c r="D14" s="1" t="inlineStr">
         <is>
           <t>Inidcadores</t>
         </is>
       </c>
-      <c r="E12" s="1" t="inlineStr">
+      <c r="E14" s="1" t="inlineStr">
+        <is>
+          <t>Linea Base</t>
+        </is>
+      </c>
+      <c r="F14" s="1" t="inlineStr">
         <is>
           <t>Meta</t>
         </is>
       </c>
-      <c r="F12" s="1" t="inlineStr">
+      <c r="G14" s="1" t="inlineStr">
+        <is>
+          <t>Fecuencia</t>
+        </is>
+      </c>
+      <c r="H14" s="1" t="inlineStr">
         <is>
           <t>Unidad de Medida</t>
         </is>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="0" t="inlineStr">
-        <is>
-          <t>Componente</t>
-        </is>
-      </c>
-      <c r="B13" s="0" t="inlineStr">
-        <is>
-          <t>5366</t>
-        </is>
-      </c>
-      <c r="C13" s="0" t="inlineStr">
-        <is>
-          <t>6.1 Ser un gobierno cercano y de alto desempeño de cara a la sociedad. </t>
-        </is>
-      </c>
-      <c r="D13" s="0" t="inlineStr">
-        <is>
-          <t>Estudio de rutas potenciales de aviación comercial de pasajeros</t>
-        </is>
-      </c>
-      <c r="E13" s="0" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F13" s="0" t="inlineStr">
-        <is>
-          <t>Porcentaje de Avance</t>
+    <row r="15" spans="1:8">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>Fin</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t>2.1 Aumento en el nivel educativo promedio de la población del estado. </t>
+        </is>
+      </c>
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t>5512</t>
+        </is>
+      </c>
+      <c r="D15" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de Proyectos del Plan Querétaro Digital liberados con respecto al total de Proyectos</t>
+        </is>
+      </c>
+      <c r="E15" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F15" s="0" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="G15" s="0" t="inlineStr">
+        <is>
+          <t>Trimestral</t>
+        </is>
+      </c>
+      <c r="H15" s="0" t="inlineStr">
+        <is>
+          <t>Proyecto</t>
         </is>
       </c>
     </row>

--- a/public/reportes/POAS.xlsx
+++ b/public/reportes/POAS.xlsx
@@ -89,11 +89,6 @@
           <t>Organismo</t>
         </is>
       </c>
-      <c r="B1" s="0" t="inlineStr">
-        <is>
-          <t>Secretaría de Finanzas</t>
-        </is>
-      </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="inlineStr">
@@ -101,11 +96,6 @@
           <t>Programa Presupuestario</t>
         </is>
       </c>
-      <c r="B2" s="0" t="inlineStr">
-        <is>
-          <t>Energía</t>
-        </is>
-      </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="inlineStr">
@@ -113,11 +103,6 @@
           <t>Clasificación Programatica (Grupo de Gasto)</t>
         </is>
       </c>
-      <c r="B3" s="0" t="inlineStr">
-        <is>
-          <t>Programable</t>
-        </is>
-      </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="inlineStr">
@@ -125,11 +110,6 @@
           <t>Clasificación Programatica (Grupo de Programa)</t>
         </is>
       </c>
-      <c r="B4" s="0" t="inlineStr">
-        <is>
-          <t>Desempeño de las Funciones</t>
-        </is>
-      </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="inlineStr">
@@ -137,11 +117,6 @@
           <t>Clasificación Programatica (Modalidad)</t>
         </is>
       </c>
-      <c r="B5" s="0" t="inlineStr">
-        <is>
-          <t>P - Planeación, formulación, implementación, seguimiento y evaluación de políticas públicas</t>
-        </is>
-      </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="inlineStr">
@@ -149,11 +124,6 @@
           <t>Gasto de orden</t>
         </is>
       </c>
-      <c r="B6" s="0" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="inlineStr">
@@ -202,7 +172,7 @@
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>07-05-2022 06:02:39 pm</t>
+          <t>07-07-2022 12:12:53 pm</t>
         </is>
       </c>
       <c r="E11" s="3" t="inlineStr">
@@ -256,40 +226,77 @@
     <row r="15" spans="1:8">
       <c r="A15" s="0" t="inlineStr">
         <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t>6 Gobierno Ciudadano</t>
+        </is>
+      </c>
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t>5612</t>
+        </is>
+      </c>
+      <c r="D15" s="0" t="inlineStr">
+        <is>
+          <t>Sumatoria de POA alineados con el Plan Estatal de Desarrollo 2021-2027</t>
+        </is>
+      </c>
+      <c r="F15" s="0" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="G15" s="0" t="inlineStr">
+        <is>
+          <t>Mensual</t>
+        </is>
+      </c>
+      <c r="H15" s="0" t="inlineStr">
+        <is>
+          <t>Plan</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
           <t>Fin</t>
         </is>
       </c>
-      <c r="B15" s="0" t="inlineStr">
+      <c r="B16" s="0" t="inlineStr">
         <is>
           <t>2.1 Aumento en el nivel educativo promedio de la población del estado. </t>
         </is>
       </c>
-      <c r="C15" s="0" t="inlineStr">
+      <c r="C16" s="0" t="inlineStr">
         <is>
           <t>5512</t>
         </is>
       </c>
-      <c r="D15" s="0" t="inlineStr">
+      <c r="D16" s="0" t="inlineStr">
         <is>
           <t>Porcentaje de Proyectos del Plan Querétaro Digital liberados con respecto al total de Proyectos</t>
         </is>
       </c>
-      <c r="E15" s="0" t="inlineStr">
+      <c r="E16" s="0" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F15" s="0" t="inlineStr">
+      <c r="F16" s="0" t="inlineStr">
         <is>
           <t>80</t>
         </is>
       </c>
-      <c r="G15" s="0" t="inlineStr">
+      <c r="G16" s="0" t="inlineStr">
         <is>
           <t>Trimestral</t>
         </is>
       </c>
-      <c r="H15" s="0" t="inlineStr">
+      <c r="H16" s="0" t="inlineStr">
         <is>
           <t>Proyecto</t>
         </is>

--- a/public/reportes/POAS.xlsx
+++ b/public/reportes/POAS.xlsx
@@ -14,7 +14,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -27,11 +27,6 @@
       <i/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <sz val="20"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -66,13 +61,10 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -89,6 +81,11 @@
           <t>Organismo</t>
         </is>
       </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de Desarrollo Sustentable</t>
+        </is>
+      </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="inlineStr">
@@ -96,6 +93,11 @@
           <t>Programa Presupuestario</t>
         </is>
       </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>Cultura</t>
+        </is>
+      </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="inlineStr">
@@ -103,6 +105,11 @@
           <t>Clasificación Programatica (Grupo de Gasto)</t>
         </is>
       </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>Programable</t>
+        </is>
+      </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="inlineStr">
@@ -110,6 +117,11 @@
           <t>Clasificación Programatica (Grupo de Programa)</t>
         </is>
       </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>Desempeño de las Funciones</t>
+        </is>
+      </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="inlineStr">
@@ -117,6 +129,11 @@
           <t>Clasificación Programatica (Modalidad)</t>
         </is>
       </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>E - Prestación de Servicios Públicos</t>
+        </is>
+      </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="inlineStr">
@@ -124,6 +141,11 @@
           <t>Gasto de orden</t>
         </is>
       </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="inlineStr">
@@ -131,10 +153,9 @@
           <t>Eje</t>
         </is>
       </c>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>Gobierno Ciudadano
-</t>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>Economía Dinámica y Prosperidad Familiar</t>
         </is>
       </c>
     </row>
@@ -146,7 +167,7 @@
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>Secretaría de Planeación y Participación Ciudadana</t>
+          <t>Objetivo temporaPropiciar condiciones, oportunidades y apoyos para mantener el ritmo de crecimiento económico dinámico, sostenible, equilibrado y equitativo que incremente la prosperidad de las familias queretanas y estimule la competitividad de los sectores económicos.</t>
         </is>
       </c>
     </row>
@@ -172,10 +193,10 @@
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>07-07-2022 12:12:53 pm</t>
-        </is>
-      </c>
-      <c r="E11" s="3" t="inlineStr">
+          <t>07-08-2022 07:03:44 pm</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
         <is>
           <t>POA (SF)</t>
         </is>
@@ -231,74 +252,37 @@
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>6 Gobierno Ciudadano</t>
+          <t>1.1.2 Consolidar el sistema de salud con apoyo interinstitucional</t>
         </is>
       </c>
       <c r="C15" s="0" t="inlineStr">
         <is>
-          <t>5612</t>
+          <t>6421</t>
         </is>
       </c>
       <c r="D15" s="0" t="inlineStr">
         <is>
-          <t>Sumatoria de POA alineados con el Plan Estatal de Desarrollo 2021-2027</t>
+          <t>Indicador Ejemplo</t>
+        </is>
+      </c>
+      <c r="E15" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
       <c r="F15" s="0" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>100</t>
         </is>
       </c>
       <c r="G15" s="0" t="inlineStr">
         <is>
-          <t>Mensual</t>
+          <t>Anual</t>
         </is>
       </c>
       <c r="H15" s="0" t="inlineStr">
         <is>
-          <t>Plan</t>
-        </is>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="0" t="inlineStr">
-        <is>
-          <t>Fin</t>
-        </is>
-      </c>
-      <c r="B16" s="0" t="inlineStr">
-        <is>
-          <t>2.1 Aumento en el nivel educativo promedio de la población del estado. </t>
-        </is>
-      </c>
-      <c r="C16" s="0" t="inlineStr">
-        <is>
-          <t>5512</t>
-        </is>
-      </c>
-      <c r="D16" s="0" t="inlineStr">
-        <is>
-          <t>Porcentaje de Proyectos del Plan Querétaro Digital liberados con respecto al total de Proyectos</t>
-        </is>
-      </c>
-      <c r="E16" s="0" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F16" s="0" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="G16" s="0" t="inlineStr">
-        <is>
-          <t>Trimestral</t>
-        </is>
-      </c>
-      <c r="H16" s="0" t="inlineStr">
-        <is>
-          <t>Proyecto</t>
+          <t>Acciones</t>
         </is>
       </c>
     </row>

--- a/public/reportes/POAS.xlsx
+++ b/public/reportes/POAS.xlsx
@@ -14,7 +14,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -25,6 +25,11 @@
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <i/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <sz val="20"/>
@@ -61,10 +66,13 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -81,11 +89,6 @@
           <t>Organismo</t>
         </is>
       </c>
-      <c r="B1" s="0" t="inlineStr">
-        <is>
-          <t>Secretaría de Desarrollo Sustentable</t>
-        </is>
-      </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="inlineStr">
@@ -93,11 +96,6 @@
           <t>Programa Presupuestario</t>
         </is>
       </c>
-      <c r="B2" s="0" t="inlineStr">
-        <is>
-          <t>Cultura</t>
-        </is>
-      </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="inlineStr">
@@ -105,11 +103,6 @@
           <t>Clasificación Programatica (Grupo de Gasto)</t>
         </is>
       </c>
-      <c r="B3" s="0" t="inlineStr">
-        <is>
-          <t>Programable</t>
-        </is>
-      </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="inlineStr">
@@ -117,11 +110,6 @@
           <t>Clasificación Programatica (Grupo de Programa)</t>
         </is>
       </c>
-      <c r="B4" s="0" t="inlineStr">
-        <is>
-          <t>Desempeño de las Funciones</t>
-        </is>
-      </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="inlineStr">
@@ -129,11 +117,6 @@
           <t>Clasificación Programatica (Modalidad)</t>
         </is>
       </c>
-      <c r="B5" s="0" t="inlineStr">
-        <is>
-          <t>E - Prestación de Servicios Públicos</t>
-        </is>
-      </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="inlineStr">
@@ -141,11 +124,6 @@
           <t>Gasto de orden</t>
         </is>
       </c>
-      <c r="B6" s="0" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="inlineStr">
@@ -153,9 +131,10 @@
           <t>Eje</t>
         </is>
       </c>
-      <c r="B7" s="0" t="inlineStr">
-        <is>
-          <t>Economía Dinámica y Prosperidad Familiar</t>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>Gobierno Ciudadano
+</t>
         </is>
       </c>
     </row>
@@ -167,7 +146,7 @@
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>Objetivo temporaPropiciar condiciones, oportunidades y apoyos para mantener el ritmo de crecimiento económico dinámico, sostenible, equilibrado y equitativo que incremente la prosperidad de las familias queretanas y estimule la competitividad de los sectores económicos.</t>
+          <t>Generar condiciones de paz y tranquilidad para la ciudadanía, preservando en todo momento el Estado de derecho y cumpliendo el mandato de brindar protección a las personas y sus bienes, garantizando el derecho de acceso a la justicia, promoviendo la mediación comunitaria y aplicando la ley a cabalidad, privilegiando la rendición de cuentas y la participación comunitaria.</t>
         </is>
       </c>
     </row>
@@ -193,10 +172,10 @@
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>07-08-2022 07:03:44 pm</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
+          <t>07-11-2022 03:20:38 pm</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="inlineStr">
         <is>
           <t>POA (SF)</t>
         </is>
@@ -247,42 +226,210 @@
     <row r="15" spans="1:8">
       <c r="A15" s="0" t="inlineStr">
         <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t>6.1.4.2 Avanzar en la digitalización de trámites y servicios.</t>
+        </is>
+      </c>
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t>4976</t>
+        </is>
+      </c>
+      <c r="D15" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de etapas concluidas de la implentación de la plataforma digital con Total de etapas para la implementación de la plataforma digital</t>
+        </is>
+      </c>
+      <c r="E15" s="0" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F15" s="0" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G15" s="0" t="inlineStr">
+        <is>
+          <t>Trimestral</t>
+        </is>
+      </c>
+      <c r="H15" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de Avance</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="inlineStr">
+        <is>
+          <t>6.1.4.2 Avanzar en la digitalización de trámites y servicios.</t>
+        </is>
+      </c>
+      <c r="C16" s="0" t="inlineStr">
+        <is>
+          <t>4974</t>
+        </is>
+      </c>
+      <c r="D16" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de etapas concluidas del aplicativo web para el arrendamiento de inmuebles con respecto al total de etapas propuestas para el portal web para el arrendamiento de inmuebles</t>
+        </is>
+      </c>
+      <c r="E16" s="0" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F16" s="0" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G16" s="0" t="inlineStr">
+        <is>
+          <t>Trimestral</t>
+        </is>
+      </c>
+      <c r="H16" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de Avance</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="inlineStr">
+        <is>
+          <t>6.1.1.1 Fortalecer la transparencia institucional y el acceso a la información.</t>
+        </is>
+      </c>
+      <c r="C17" s="0" t="inlineStr">
+        <is>
+          <t>5889</t>
+        </is>
+      </c>
+      <c r="D17" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de supervisiones realizadas con respecto al total de supervisiones programadas para los Órganos Internos de Control</t>
+        </is>
+      </c>
+      <c r="E17" s="0" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F17" s="0" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="G17" s="0" t="inlineStr">
+        <is>
+          <t>Trimestral</t>
+        </is>
+      </c>
+      <c r="H17" s="0" t="inlineStr">
+        <is>
+          <t>Supervisión</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="inlineStr">
+        <is>
+          <t>6.1.1.1 Fortalecer la transparencia institucional y el acceso a la información.</t>
+        </is>
+      </c>
+      <c r="C18" s="0" t="inlineStr">
+        <is>
+          <t>5893</t>
+        </is>
+      </c>
+      <c r="D18" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de servidores públicos del Poder Ejecutivo que presentaron su declaración de inicio y/o conclusión en tiempo y forma, con respecto al total de servidores públicos obligados</t>
+        </is>
+      </c>
+      <c r="E18" s="0" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="F18" s="0" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="G18" s="0" t="inlineStr">
+        <is>
+          <t>Mensual</t>
+        </is>
+      </c>
+      <c r="H18" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de Avance</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
           <t>Componente</t>
         </is>
       </c>
-      <c r="B15" s="0" t="inlineStr">
+      <c r="B19" s="0" t="inlineStr">
         <is>
           <t>1.1.2 Consolidar el sistema de salud con apoyo interinstitucional</t>
         </is>
       </c>
-      <c r="C15" s="0" t="inlineStr">
-        <is>
-          <t>6421</t>
-        </is>
-      </c>
-      <c r="D15" s="0" t="inlineStr">
-        <is>
-          <t>Indicador Ejemplo</t>
-        </is>
-      </c>
-      <c r="E15" s="0" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F15" s="0" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="G15" s="0" t="inlineStr">
-        <is>
-          <t>Anual</t>
-        </is>
-      </c>
-      <c r="H15" s="0" t="inlineStr">
-        <is>
-          <t>Acciones</t>
+      <c r="C19" s="0" t="inlineStr">
+        <is>
+          <t>6424</t>
+        </is>
+      </c>
+      <c r="D19" s="0" t="inlineStr">
+        <is>
+          <t>INDICADOR ESZ 1</t>
+        </is>
+      </c>
+      <c r="E19" s="0" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="F19" s="0" t="inlineStr">
+        <is>
+          <t>1000</t>
+        </is>
+      </c>
+      <c r="G19" s="0" t="inlineStr">
+        <is>
+          <t>Mensual</t>
+        </is>
+      </c>
+      <c r="H19" s="0" t="inlineStr">
+        <is>
+          <t>Acta de cierre</t>
         </is>
       </c>
     </row>

--- a/public/reportes/POAS.xlsx
+++ b/public/reportes/POAS.xlsx
@@ -89,6 +89,11 @@
           <t>Organismo</t>
         </is>
       </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>Secretaría de Finanzas</t>
+        </is>
+      </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="inlineStr">
@@ -172,7 +177,7 @@
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>07-11-2022 03:20:38 pm</t>
+          <t>07-12-2022 07:46:34 am</t>
         </is>
       </c>
       <c r="E11" s="3" t="inlineStr">
@@ -226,27 +231,22 @@
     <row r="15" spans="1:8">
       <c r="A15" s="0" t="inlineStr">
         <is>
-          <t>Actividad</t>
+          <t>Componente</t>
         </is>
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>6.1.4.2 Avanzar en la digitalización de trámites y servicios.</t>
+          <t>1 Salud y Vida Digna</t>
         </is>
       </c>
       <c r="C15" s="0" t="inlineStr">
         <is>
-          <t>4976</t>
+          <t>5522</t>
         </is>
       </c>
       <c r="D15" s="0" t="inlineStr">
         <is>
-          <t>Porcentaje de etapas concluidas de la implentación de la plataforma digital con Total de etapas para la implementación de la plataforma digital</t>
-        </is>
-      </c>
-      <c r="E15" s="0" t="inlineStr">
-        <is>
-          <t>5</t>
+          <t>Calificación crediticia de la Entidad</t>
         </is>
       </c>
       <c r="F15" s="0" t="inlineStr">
@@ -256,7 +256,7 @@
       </c>
       <c r="G15" s="0" t="inlineStr">
         <is>
-          <t>Trimestral</t>
+          <t>Anual</t>
         </is>
       </c>
       <c r="H15" s="0" t="inlineStr">
@@ -273,163 +273,32 @@
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>6.1.4.2 Avanzar en la digitalización de trámites y servicios.</t>
+          <t>2 Educación, Cultura y Deporte</t>
         </is>
       </c>
       <c r="C16" s="0" t="inlineStr">
         <is>
-          <t>4974</t>
+          <t>5529</t>
         </is>
       </c>
       <c r="D16" s="0" t="inlineStr">
         <is>
-          <t>Porcentaje de etapas concluidas del aplicativo web para el arrendamiento de inmuebles con respecto al total de etapas propuestas para el portal web para el arrendamiento de inmuebles</t>
-        </is>
-      </c>
-      <c r="E16" s="0" t="inlineStr">
-        <is>
-          <t>5</t>
+          <t>Monto de los recursos subastados a través del Portal web público</t>
         </is>
       </c>
       <c r="F16" s="0" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>13903000</t>
         </is>
       </c>
       <c r="G16" s="0" t="inlineStr">
         <is>
-          <t>Trimestral</t>
+          <t>Anual</t>
         </is>
       </c>
       <c r="H16" s="0" t="inlineStr">
         <is>
-          <t>Porcentaje de Avance</t>
-        </is>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="0" t="inlineStr">
-        <is>
-          <t>Actividad</t>
-        </is>
-      </c>
-      <c r="B17" s="0" t="inlineStr">
-        <is>
-          <t>6.1.1.1 Fortalecer la transparencia institucional y el acceso a la información.</t>
-        </is>
-      </c>
-      <c r="C17" s="0" t="inlineStr">
-        <is>
-          <t>5889</t>
-        </is>
-      </c>
-      <c r="D17" s="0" t="inlineStr">
-        <is>
-          <t>Porcentaje de supervisiones realizadas con respecto al total de supervisiones programadas para los Órganos Internos de Control</t>
-        </is>
-      </c>
-      <c r="E17" s="0" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="F17" s="0" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
-      <c r="G17" s="0" t="inlineStr">
-        <is>
-          <t>Trimestral</t>
-        </is>
-      </c>
-      <c r="H17" s="0" t="inlineStr">
-        <is>
-          <t>Supervisión</t>
-        </is>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="0" t="inlineStr">
-        <is>
-          <t>Actividad</t>
-        </is>
-      </c>
-      <c r="B18" s="0" t="inlineStr">
-        <is>
-          <t>6.1.1.1 Fortalecer la transparencia institucional y el acceso a la información.</t>
-        </is>
-      </c>
-      <c r="C18" s="0" t="inlineStr">
-        <is>
-          <t>5893</t>
-        </is>
-      </c>
-      <c r="D18" s="0" t="inlineStr">
-        <is>
-          <t>Porcentaje de servidores públicos del Poder Ejecutivo que presentaron su declaración de inicio y/o conclusión en tiempo y forma, con respecto al total de servidores públicos obligados</t>
-        </is>
-      </c>
-      <c r="E18" s="0" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="F18" s="0" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="G18" s="0" t="inlineStr">
-        <is>
-          <t>Mensual</t>
-        </is>
-      </c>
-      <c r="H18" s="0" t="inlineStr">
-        <is>
-          <t>Porcentaje de Avance</t>
-        </is>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="0" t="inlineStr">
-        <is>
-          <t>Componente</t>
-        </is>
-      </c>
-      <c r="B19" s="0" t="inlineStr">
-        <is>
-          <t>1.1.2 Consolidar el sistema de salud con apoyo interinstitucional</t>
-        </is>
-      </c>
-      <c r="C19" s="0" t="inlineStr">
-        <is>
-          <t>6424</t>
-        </is>
-      </c>
-      <c r="D19" s="0" t="inlineStr">
-        <is>
-          <t>INDICADOR ESZ 1</t>
-        </is>
-      </c>
-      <c r="E19" s="0" t="inlineStr">
-        <is>
-          <t>233</t>
-        </is>
-      </c>
-      <c r="F19" s="0" t="inlineStr">
-        <is>
-          <t>1000</t>
-        </is>
-      </c>
-      <c r="G19" s="0" t="inlineStr">
-        <is>
-          <t>Mensual</t>
-        </is>
-      </c>
-      <c r="H19" s="0" t="inlineStr">
-        <is>
-          <t>Acta de cierre</t>
+          <t>Recurso</t>
         </is>
       </c>
     </row>

--- a/public/reportes/POAS.xlsx
+++ b/public/reportes/POAS.xlsx
@@ -101,6 +101,11 @@
           <t>Programa Presupuestario</t>
         </is>
       </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>Empleo</t>
+        </is>
+      </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="inlineStr">
@@ -108,6 +113,11 @@
           <t>Clasificación Programatica (Grupo de Gasto)</t>
         </is>
       </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>Programable</t>
+        </is>
+      </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="inlineStr">
@@ -115,6 +125,11 @@
           <t>Clasificación Programatica (Grupo de Programa)</t>
         </is>
       </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>Desempeño de las Funciones</t>
+        </is>
+      </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="inlineStr">
@@ -122,6 +137,11 @@
           <t>Clasificación Programatica (Modalidad)</t>
         </is>
       </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>E - Prestación de Servicios Públicos</t>
+        </is>
+      </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="inlineStr">
@@ -129,6 +149,11 @@
           <t>Gasto de orden</t>
         </is>
       </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="inlineStr">
@@ -177,7 +202,7 @@
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>07-12-2022 07:46:34 am</t>
+          <t>07-12-2022 11:42:28 am</t>
         </is>
       </c>
       <c r="E11" s="3" t="inlineStr">
@@ -231,37 +256,42 @@
     <row r="15" spans="1:8">
       <c r="A15" s="0" t="inlineStr">
         <is>
-          <t>Componente</t>
+          <t>Actividad</t>
         </is>
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>1 Salud y Vida Digna</t>
+          <t>2 Educación, Cultura y Deporte</t>
         </is>
       </c>
       <c r="C15" s="0" t="inlineStr">
         <is>
-          <t>5522</t>
+          <t>5529</t>
         </is>
       </c>
       <c r="D15" s="0" t="inlineStr">
         <is>
-          <t>Calificación crediticia de la Entidad</t>
+          <t>Monto de los recursos subastados a través del Portal web público TEST</t>
+        </is>
+      </c>
+      <c r="E15" s="0" t="inlineStr">
+        <is>
+          <t>456</t>
         </is>
       </c>
       <c r="F15" s="0" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>13903000</t>
         </is>
       </c>
       <c r="G15" s="0" t="inlineStr">
         <is>
-          <t>Anual</t>
+          <t>Diario</t>
         </is>
       </c>
       <c r="H15" s="0" t="inlineStr">
         <is>
-          <t>Porcentaje de Avance</t>
+          <t>Recurso</t>
         </is>
       </c>
     </row>
@@ -273,32 +303,186 @@
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>2 Educación, Cultura y Deporte</t>
+          <t>5 Paz y Respeto a la Ley</t>
         </is>
       </c>
       <c r="C16" s="0" t="inlineStr">
         <is>
-          <t>5529</t>
+          <t>5517</t>
         </is>
       </c>
       <c r="D16" s="0" t="inlineStr">
         <is>
-          <t>Monto de los recursos subastados a través del Portal web público</t>
+          <t>Porcentaje test | Porcentaje de módulos del nuevo sistema financiero  implementados hasta su fase de pruebas respecto a los módulos por implementar en 2022</t>
+        </is>
+      </c>
+      <c r="E16" s="0" t="inlineStr">
+        <is>
+          <t>123</t>
         </is>
       </c>
       <c r="F16" s="0" t="inlineStr">
         <is>
+          <t>1314</t>
+        </is>
+      </c>
+      <c r="G16" s="0" t="inlineStr">
+        <is>
+          <t>Mensual | Trimestral</t>
+        </is>
+      </c>
+      <c r="H16" s="0" t="inlineStr">
+        <is>
+          <t>Acciones | Porcentaje de Avance</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="0">
+        <v>0</v>
+      </c>
+      <c r="B17" s="0" t="inlineStr">
+        <is>
+          <t>5 Paz y Respeto a la Ley</t>
+        </is>
+      </c>
+      <c r="C17" s="0" t="inlineStr">
+        <is>
+          <t>5517</t>
+        </is>
+      </c>
+      <c r="D17" s="0" t="inlineStr">
+        <is>
+          <t>5527-Monto de los recursos subastados a través del Portal web público</t>
+        </is>
+      </c>
+      <c r="E17" s="0" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="F17" s="0" t="inlineStr">
+        <is>
           <t>13903000</t>
         </is>
       </c>
-      <c r="G16" s="0" t="inlineStr">
+      <c r="G17" s="0" t="inlineStr">
         <is>
           <t>Anual</t>
         </is>
       </c>
-      <c r="H16" s="0" t="inlineStr">
+      <c r="H17" s="0" t="inlineStr">
         <is>
           <t>Recurso</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="0">
+        <v>0</v>
+      </c>
+      <c r="B18" s="0" t="inlineStr">
+        <is>
+          <t>5 Paz y Respeto a la Ley</t>
+        </is>
+      </c>
+      <c r="C18" s="0" t="inlineStr">
+        <is>
+          <t>5517</t>
+        </is>
+      </c>
+      <c r="D18" s="0" t="inlineStr">
+        <is>
+          <t>5529-Monto de los recursos subastados a través del Portal web público TEST</t>
+        </is>
+      </c>
+      <c r="E18" s="0" t="inlineStr">
+        <is>
+          <t>456</t>
+        </is>
+      </c>
+      <c r="F18" s="0" t="inlineStr">
+        <is>
+          <t>13903000</t>
+        </is>
+      </c>
+      <c r="G18" s="0" t="inlineStr">
+        <is>
+          <t>Diario</t>
+        </is>
+      </c>
+      <c r="H18" s="0" t="inlineStr">
+        <is>
+          <t>Recurso</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>Componente</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="inlineStr">
+        <is>
+          <t>1 Salud y Vida Digna</t>
+        </is>
+      </c>
+      <c r="C19" s="0" t="inlineStr">
+        <is>
+          <t>5522</t>
+        </is>
+      </c>
+      <c r="D19" s="0" t="inlineStr">
+        <is>
+          <t>Calificación crediticia de la Entidad</t>
+        </is>
+      </c>
+      <c r="F19" s="0" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="G19" s="0" t="inlineStr">
+        <is>
+          <t>Anual</t>
+        </is>
+      </c>
+      <c r="H19" s="0" t="inlineStr">
+        <is>
+          <t>Porcentaje de Avance</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="C20" s="0" t="inlineStr">
+        <is>
+          <t>6441</t>
+        </is>
+      </c>
+      <c r="D20" s="0" t="inlineStr">
+        <is>
+          <t>Indicador hija SF 2</t>
+        </is>
+      </c>
+      <c r="E20" s="0" t="inlineStr">
+        <is>
+          <t>456</t>
+        </is>
+      </c>
+      <c r="F20" s="0" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="G20" s="0" t="inlineStr">
+        <is>
+          <t>Mensual</t>
+        </is>
+      </c>
+      <c r="H20" s="0" t="inlineStr">
+        <is>
+          <t>Adulto</t>
         </is>
       </c>
     </row>

--- a/public/reportes/POAS.xlsx
+++ b/public/reportes/POAS.xlsx
@@ -101,11 +101,6 @@
           <t>Programa Presupuestario</t>
         </is>
       </c>
-      <c r="B2" s="0" t="inlineStr">
-        <is>
-          <t>Empleo</t>
-        </is>
-      </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="inlineStr">
@@ -113,11 +108,6 @@
           <t>Clasificación Programatica (Grupo de Gasto)</t>
         </is>
       </c>
-      <c r="B3" s="0" t="inlineStr">
-        <is>
-          <t>Programable</t>
-        </is>
-      </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="inlineStr">
@@ -125,11 +115,6 @@
           <t>Clasificación Programatica (Grupo de Programa)</t>
         </is>
       </c>
-      <c r="B4" s="0" t="inlineStr">
-        <is>
-          <t>Desempeño de las Funciones</t>
-        </is>
-      </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="inlineStr">
@@ -137,11 +122,6 @@
           <t>Clasificación Programatica (Modalidad)</t>
         </is>
       </c>
-      <c r="B5" s="0" t="inlineStr">
-        <is>
-          <t>E - Prestación de Servicios Públicos</t>
-        </is>
-      </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="inlineStr">
@@ -149,11 +129,6 @@
           <t>Gasto de orden</t>
         </is>
       </c>
-      <c r="B6" s="0" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="inlineStr">
@@ -202,7 +177,7 @@
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>07-12-2022 11:42:28 am</t>
+          <t>07-12-2022 11:50:22 am</t>
         </is>
       </c>
       <c r="E11" s="3" t="inlineStr">
@@ -338,8 +313,10 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="0">
-        <v>0</v>
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
@@ -353,7 +330,7 @@
       </c>
       <c r="D17" s="0" t="inlineStr">
         <is>
-          <t>5527-Monto de los recursos subastados a través del Portal web público</t>
+          <t>Monto de los recursos subastados a través del Portal web público</t>
         </is>
       </c>
       <c r="E17" s="0" t="inlineStr">
@@ -378,8 +355,10 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="0">
-        <v>0</v>
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
@@ -393,7 +372,7 @@
       </c>
       <c r="D18" s="0" t="inlineStr">
         <is>
-          <t>5529-Monto de los recursos subastados a través del Portal web público TEST</t>
+          <t>Monto de los recursos subastados a través del Portal web público TEST</t>
         </is>
       </c>
       <c r="E18" s="0" t="inlineStr">

--- a/public/reportes/POAS.xlsx
+++ b/public/reportes/POAS.xlsx
@@ -14,7 +14,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -36,8 +36,13 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -54,6 +59,11 @@
         <fgColor rgb="FFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -66,13 +76,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyBorder="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -177,7 +188,7 @@
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>07-12-2022 11:50:22 am</t>
+          <t>07-12-2022 08:59:33 pm</t>
         </is>
       </c>
       <c r="E11" s="3" t="inlineStr">
@@ -229,239 +240,407 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="0" t="inlineStr">
+      <c r="A15" s="4" t="inlineStr">
         <is>
           <t>Actividad</t>
         </is>
       </c>
-      <c r="B15" s="0" t="inlineStr">
+      <c r="B15" s="4" t="inlineStr">
         <is>
           <t>2 Educación, Cultura y Deporte</t>
         </is>
       </c>
-      <c r="C15" s="0" t="inlineStr">
+      <c r="C15" s="4" t="inlineStr">
         <is>
           <t>5529</t>
         </is>
       </c>
-      <c r="D15" s="0" t="inlineStr">
+      <c r="D15" s="4" t="inlineStr">
         <is>
           <t>Monto de los recursos subastados a través del Portal web público TEST</t>
         </is>
       </c>
-      <c r="E15" s="0" t="inlineStr">
+      <c r="E15" s="4" t="inlineStr">
         <is>
           <t>456</t>
         </is>
       </c>
-      <c r="F15" s="0" t="inlineStr">
+      <c r="F15" s="4" t="inlineStr">
         <is>
           <t>13903000</t>
         </is>
       </c>
-      <c r="G15" s="0" t="inlineStr">
+      <c r="G15" s="4" t="inlineStr">
         <is>
           <t>Diario</t>
         </is>
       </c>
-      <c r="H15" s="0" t="inlineStr">
+      <c r="H15" s="4" t="inlineStr">
         <is>
           <t>Recurso</t>
         </is>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="0" t="inlineStr">
-        <is>
-          <t>Actividad</t>
-        </is>
-      </c>
-      <c r="B16" s="0" t="inlineStr">
-        <is>
-          <t>5 Paz y Respeto a la Ley</t>
-        </is>
-      </c>
-      <c r="C16" s="0" t="inlineStr">
-        <is>
-          <t>5517</t>
-        </is>
-      </c>
-      <c r="D16" s="0" t="inlineStr">
-        <is>
-          <t>Porcentaje test | Porcentaje de módulos del nuevo sistema financiero  implementados hasta su fase de pruebas respecto a los módulos por implementar en 2022</t>
-        </is>
-      </c>
-      <c r="E16" s="0" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="F16" s="0" t="inlineStr">
-        <is>
-          <t>1314</t>
-        </is>
-      </c>
-      <c r="G16" s="0" t="inlineStr">
-        <is>
-          <t>Mensual | Trimestral</t>
-        </is>
-      </c>
-      <c r="H16" s="0" t="inlineStr">
-        <is>
-          <t>Acciones | Porcentaje de Avance</t>
+      <c r="A16" s="4" t="inlineStr">
+        <is>
+          <t>Fin</t>
+        </is>
+      </c>
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>6 Gobierno Ciudadano</t>
+        </is>
+      </c>
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t>6453</t>
+        </is>
+      </c>
+      <c r="D16" s="4" t="inlineStr">
+        <is>
+          <t>INDICADOR PADRE AGLOMERADO 4</t>
+        </is>
+      </c>
+      <c r="E16" s="4" t="inlineStr">
+        <is>
+          <t>1234</t>
+        </is>
+      </c>
+      <c r="F16" s="4" t="inlineStr">
+        <is>
+          <t>1232</t>
+        </is>
+      </c>
+      <c r="G16" s="4" t="inlineStr">
+        <is>
+          <t>Bimestral</t>
+        </is>
+      </c>
+      <c r="H16" s="4" t="inlineStr">
+        <is>
+          <t>Almacén</t>
         </is>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="0" t="inlineStr">
         <is>
-          <t>Actividad</t>
+          <t>Fin</t>
         </is>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>5 Paz y Respeto a la Ley</t>
+          <t>6 Gobierno Ciudadano</t>
         </is>
       </c>
       <c r="C17" s="0" t="inlineStr">
         <is>
-          <t>5517</t>
+          <t>6453</t>
         </is>
       </c>
       <c r="D17" s="0" t="inlineStr">
         <is>
-          <t>Monto de los recursos subastados a través del Portal web público</t>
+          <t>INDICADOR AGLOMERADO 4 HIJA</t>
         </is>
       </c>
       <c r="E17" s="0" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>231</t>
         </is>
       </c>
       <c r="F17" s="0" t="inlineStr">
         <is>
-          <t>13903000</t>
+          <t>32324</t>
         </is>
       </c>
       <c r="G17" s="0" t="inlineStr">
         <is>
-          <t>Anual</t>
+          <t>Semanal</t>
         </is>
       </c>
       <c r="H17" s="0" t="inlineStr">
         <is>
-          <t>Recurso</t>
+          <t>Amparo</t>
         </is>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="0" t="inlineStr">
-        <is>
-          <t>Actividad</t>
-        </is>
-      </c>
-      <c r="B18" s="0" t="inlineStr">
-        <is>
-          <t>5 Paz y Respeto a la Ley</t>
-        </is>
-      </c>
-      <c r="C18" s="0" t="inlineStr">
-        <is>
-          <t>5517</t>
-        </is>
-      </c>
-      <c r="D18" s="0" t="inlineStr">
-        <is>
-          <t>Monto de los recursos subastados a través del Portal web público TEST</t>
-        </is>
-      </c>
-      <c r="E18" s="0" t="inlineStr">
-        <is>
-          <t>456</t>
-        </is>
-      </c>
-      <c r="F18" s="0" t="inlineStr">
-        <is>
-          <t>13903000</t>
-        </is>
-      </c>
-      <c r="G18" s="0" t="inlineStr">
-        <is>
-          <t>Diario</t>
-        </is>
-      </c>
-      <c r="H18" s="0" t="inlineStr">
-        <is>
-          <t>Recurso</t>
+      <c r="A18" s="4" t="inlineStr">
+        <is>
+          <t>Fin</t>
+        </is>
+      </c>
+      <c r="B18" s="4" t="inlineStr">
+        <is>
+          <t>1.2 Aumento en el bienestar y la calidad de vida de la población del estado.</t>
+        </is>
+      </c>
+      <c r="C18" s="4" t="inlineStr">
+        <is>
+          <t>6457</t>
+        </is>
+      </c>
+      <c r="D18" s="4" t="inlineStr">
+        <is>
+          <t>INDICADOR AGLOMERADO PADRE 5 2 | INDICADOR AGLOMERADO PADRE 5</t>
+        </is>
+      </c>
+      <c r="E18" s="4" t="inlineStr">
+        <is>
+          <t>3434</t>
+        </is>
+      </c>
+      <c r="F18" s="4" t="inlineStr">
+        <is>
+          <t>2685</t>
+        </is>
+      </c>
+      <c r="G18" s="4" t="inlineStr">
+        <is>
+          <t>Quinquenal | Semanal</t>
+        </is>
+      </c>
+      <c r="H18" s="4" t="inlineStr">
+        <is>
+          <t>Adulto | Albergue</t>
         </is>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="0" t="inlineStr">
         <is>
+          <t>Fin</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="inlineStr">
+        <is>
+          <t>1.2 Aumento en el bienestar y la calidad de vida de la población del estado.</t>
+        </is>
+      </c>
+      <c r="C19" s="0" t="inlineStr">
+        <is>
+          <t>6457</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>ACTIVIDAD AGLOMERADO 5 HIJA 2
+</t>
+        </is>
+      </c>
+      <c r="E19" s="0" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F19" s="0" t="inlineStr">
+        <is>
+          <t>343</t>
+        </is>
+      </c>
+      <c r="G19" s="0" t="inlineStr">
+        <is>
+          <t>Otro</t>
+        </is>
+      </c>
+      <c r="H19" s="0" t="inlineStr">
+        <is>
+          <t>Adulto</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>Fin</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="inlineStr">
+        <is>
+          <t>1.2 Aumento en el bienestar y la calidad de vida de la población del estado.</t>
+        </is>
+      </c>
+      <c r="C20" s="0" t="inlineStr">
+        <is>
+          <t>6457</t>
+        </is>
+      </c>
+      <c r="D20" s="0" t="inlineStr">
+        <is>
+          <t>INDICADOR AGLOMERADO HIJA 2</t>
+        </is>
+      </c>
+      <c r="E20" s="0" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="F20" s="0" t="inlineStr">
+        <is>
+          <t>344</t>
+        </is>
+      </c>
+      <c r="G20" s="0" t="inlineStr">
+        <is>
+          <t>Bimestral</t>
+        </is>
+      </c>
+      <c r="H20" s="0" t="inlineStr">
+        <is>
+          <t>Acreditación</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="4" t="inlineStr">
+        <is>
+          <t>Fin</t>
+        </is>
+      </c>
+      <c r="B21" s="4" t="inlineStr">
+        <is>
+          <t>6 Gobierno Ciudadano</t>
+        </is>
+      </c>
+      <c r="C21" s="4" t="inlineStr">
+        <is>
+          <t>6459</t>
+        </is>
+      </c>
+      <c r="D21" s="4" t="inlineStr">
+        <is>
+          <t>INDICADOR PADRE 6</t>
+        </is>
+      </c>
+      <c r="E21" s="4" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F21" s="4" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="G21" s="4" t="inlineStr">
+        <is>
+          <t>Semanal</t>
+        </is>
+      </c>
+      <c r="H21" s="4" t="inlineStr">
+        <is>
+          <t>Almacén</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>Fin</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="inlineStr">
+        <is>
+          <t>6 Gobierno Ciudadano</t>
+        </is>
+      </c>
+      <c r="C22" s="0" t="inlineStr">
+        <is>
+          <t>6459</t>
+        </is>
+      </c>
+      <c r="D22" s="0" t="inlineStr">
+        <is>
+          <t>INDICADOR HIJA 6</t>
+        </is>
+      </c>
+      <c r="E22" s="0" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="F22" s="0" t="inlineStr">
+        <is>
+          <t>24324</t>
+        </is>
+      </c>
+      <c r="G22" s="0" t="inlineStr">
+        <is>
+          <t>Otro</t>
+        </is>
+      </c>
+      <c r="H22" s="0" t="inlineStr">
+        <is>
+          <t>Alumno</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4" t="inlineStr">
+        <is>
+          <t>5531</t>
+        </is>
+      </c>
+      <c r="D23" s="4" t="inlineStr">
+        <is>
+          <t>Monto acumulado de contribuciones estatales</t>
+        </is>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4" t="inlineStr">
+        <is>
+          <t>7500000000</t>
+        </is>
+      </c>
+      <c r="G23" s="4" t="inlineStr">
+        <is>
+          <t>Anual</t>
+        </is>
+      </c>
+      <c r="H23" s="4" t="inlineStr">
+        <is>
+          <t>Recurso</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="4" t="inlineStr">
+        <is>
           <t>Componente</t>
         </is>
       </c>
-      <c r="B19" s="0" t="inlineStr">
+      <c r="B24" s="4" t="inlineStr">
         <is>
           <t>1 Salud y Vida Digna</t>
         </is>
       </c>
-      <c r="C19" s="0" t="inlineStr">
+      <c r="C24" s="4" t="inlineStr">
         <is>
           <t>5522</t>
         </is>
       </c>
-      <c r="D19" s="0" t="inlineStr">
+      <c r="D24" s="4" t="inlineStr">
         <is>
           <t>Calificación crediticia de la Entidad</t>
         </is>
       </c>
-      <c r="F19" s="0" t="inlineStr">
+      <c r="E24" s="4"/>
+      <c r="F24" s="4" t="inlineStr">
         <is>
           <t>100</t>
         </is>
       </c>
-      <c r="G19" s="0" t="inlineStr">
+      <c r="G24" s="4" t="inlineStr">
         <is>
           <t>Anual</t>
         </is>
       </c>
-      <c r="H19" s="0" t="inlineStr">
+      <c r="H24" s="4" t="inlineStr">
         <is>
           <t>Porcentaje de Avance</t>
-        </is>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="C20" s="0" t="inlineStr">
-        <is>
-          <t>6441</t>
-        </is>
-      </c>
-      <c r="D20" s="0" t="inlineStr">
-        <is>
-          <t>Indicador hija SF 2</t>
-        </is>
-      </c>
-      <c r="E20" s="0" t="inlineStr">
-        <is>
-          <t>456</t>
-        </is>
-      </c>
-      <c r="F20" s="0" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="G20" s="0" t="inlineStr">
-        <is>
-          <t>Mensual</t>
-        </is>
-      </c>
-      <c r="H20" s="0" t="inlineStr">
-        <is>
-          <t>Adulto</t>
         </is>
       </c>
     </row>

--- a/public/reportes/POAS.xlsx
+++ b/public/reportes/POAS.xlsx
@@ -61,7 +61,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC000"/>
+        <fgColor rgb="FFD9A8"/>
       </patternFill>
     </fill>
   </fills>
@@ -188,7 +188,7 @@
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>07-12-2022 08:59:33 pm</t>
+          <t>07-12-2022 11:42:57 pm</t>
         </is>
       </c>
       <c r="E11" s="3" t="inlineStr">
@@ -383,7 +383,7 @@
       </c>
       <c r="D18" s="4" t="inlineStr">
         <is>
-          <t>INDICADOR AGLOMERADO PADRE 5 2 | INDICADOR AGLOMERADO PADRE 5</t>
+          <t>INDICADOR AGLOMERADO PADRE 5 | INDICADOR AGLOMERADO PADRE 5 2</t>
         </is>
       </c>
       <c r="E18" s="4" t="inlineStr">
@@ -609,36 +609,162 @@
     <row r="24" spans="1:8">
       <c r="A24" s="4" t="inlineStr">
         <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="B24" s="4" t="inlineStr">
+        <is>
+          <t>1.1 Ampliación e incremento del acceso a los servicios de salud para la ciudadanía. </t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="inlineStr">
+        <is>
+          <t>6461</t>
+        </is>
+      </c>
+      <c r="D24" s="4" t="inlineStr">
+        <is>
+          <t>Indicador 7 padre</t>
+        </is>
+      </c>
+      <c r="E24" s="4" t="inlineStr">
+        <is>
+          <t>345</t>
+        </is>
+      </c>
+      <c r="F24" s="4" t="inlineStr">
+        <is>
+          <t>123123</t>
+        </is>
+      </c>
+      <c r="G24" s="4" t="inlineStr">
+        <is>
+          <t>Otro</t>
+        </is>
+      </c>
+      <c r="H24" s="4" t="inlineStr">
+        <is>
+          <t>Albergue</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="inlineStr">
+        <is>
+          <t>1.1 Ampliación e incremento del acceso a los servicios de salud para la ciudadanía. </t>
+        </is>
+      </c>
+      <c r="C25" s="0" t="inlineStr">
+        <is>
+          <t>6461</t>
+        </is>
+      </c>
+      <c r="D25" s="0" t="inlineStr">
+        <is>
+          <t>AGLOMERADO 7 HIJA</t>
+        </is>
+      </c>
+      <c r="E25" s="0" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="F25" s="0" t="inlineStr">
+        <is>
+          <t>6000</t>
+        </is>
+      </c>
+      <c r="G25" s="0" t="inlineStr">
+        <is>
+          <t>Diario</t>
+        </is>
+      </c>
+      <c r="H25" s="0" t="inlineStr">
+        <is>
+          <t>Alumno</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>Actividad</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="inlineStr">
+        <is>
+          <t>1.1 Ampliación e incremento del acceso a los servicios de salud para la ciudadanía. </t>
+        </is>
+      </c>
+      <c r="C26" s="0" t="inlineStr">
+        <is>
+          <t>6461</t>
+        </is>
+      </c>
+      <c r="D26" s="0" t="inlineStr">
+        <is>
+          <t>AGLOMERADO 7 HIJA 2</t>
+        </is>
+      </c>
+      <c r="E26" s="0" t="inlineStr">
+        <is>
+          <t>31221</t>
+        </is>
+      </c>
+      <c r="F26" s="0" t="inlineStr">
+        <is>
+          <t>31221</t>
+        </is>
+      </c>
+      <c r="G26" s="0" t="inlineStr">
+        <is>
+          <t>Ciclo escolar</t>
+        </is>
+      </c>
+      <c r="H26" s="0" t="inlineStr">
+        <is>
+          <t>Acreditación</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="4" t="inlineStr">
+        <is>
           <t>Componente</t>
         </is>
       </c>
-      <c r="B24" s="4" t="inlineStr">
+      <c r="B27" s="4" t="inlineStr">
         <is>
           <t>1 Salud y Vida Digna</t>
         </is>
       </c>
-      <c r="C24" s="4" t="inlineStr">
+      <c r="C27" s="4" t="inlineStr">
         <is>
           <t>5522</t>
         </is>
       </c>
-      <c r="D24" s="4" t="inlineStr">
+      <c r="D27" s="4" t="inlineStr">
         <is>
           <t>Calificación crediticia de la Entidad</t>
         </is>
       </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4" t="inlineStr">
+      <c r="E27" s="4"/>
+      <c r="F27" s="4" t="inlineStr">
         <is>
           <t>100</t>
         </is>
       </c>
-      <c r="G24" s="4" t="inlineStr">
+      <c r="G27" s="4" t="inlineStr">
         <is>
           <t>Anual</t>
         </is>
       </c>
-      <c r="H24" s="4" t="inlineStr">
+      <c r="H27" s="4" t="inlineStr">
         <is>
           <t>Porcentaje de Avance</t>
         </is>
